--- a/output/OUTPUT9_A01.xlsx
+++ b/output/OUTPUT9_A01.xlsx
@@ -84,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -147,6 +147,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -192,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -244,7 +264,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -254,25 +283,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -284,42 +322,42 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,109 +759,109 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="7" customWidth="1" style="19" min="1" max="2"/>
+    <col width="7" customWidth="1" min="1" max="2"/>
     <col width="22.81640625" customWidth="1" style="1" min="3" max="30"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>Bay:</t>
         </is>
       </c>
-      <c r="B1" s="35" t="n"/>
-      <c r="C1" s="35" t="n">
+      <c r="B1" s="41" t="n"/>
+      <c r="C1" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="n">
+      <c r="D1" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="n">
+      <c r="E1" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="n">
+      <c r="F1" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="n">
+      <c r="G1" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="n">
+      <c r="H1" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="35" t="n">
+      <c r="I1" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="n">
+      <c r="J1" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="n">
+      <c r="K1" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="35" t="n">
+      <c r="L1" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="35" t="n">
+      <c r="M1" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="35" t="n">
+      <c r="N1" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="35" t="n">
+      <c r="O1" s="41" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="35" t="n">
+      <c r="P1" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="35" t="n">
+      <c r="Q1" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="35" t="n">
+      <c r="R1" s="41" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="35" t="n">
+      <c r="S1" s="41" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="35" t="n">
+      <c r="T1" s="41" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="35" t="n">
+      <c r="U1" s="41" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="35" t="n">
+      <c r="V1" s="41" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="35" t="n">
+      <c r="W1" s="41" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="35" t="n">
+      <c r="X1" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="35" t="n">
+      <c r="Y1" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="35" t="n">
+      <c r="Z1" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="35" t="n">
+      <c r="AA1" s="41" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="35" t="n">
+      <c r="AB1" s="41" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="35" t="n">
+      <c r="AC1" s="41" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="35" t="n">
+      <c r="AD1" s="41" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="11" customHeight="1" s="19">
-      <c r="A2" s="36" t="inlineStr">
+    <row r="2" ht="11" customHeight="1">
+      <c r="A2" s="42" t="inlineStr">
         <is>
           <t>L
 E
@@ -835,1454 +873,1490 @@
 E</t>
         </is>
       </c>
-      <c r="B2" s="37" t="inlineStr">
+      <c r="B2" s="43" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="C2" s="37" t="n"/>
-      <c r="D2" s="37" t="n"/>
-      <c r="E2" s="37" t="inlineStr">
+      <c r="C2" s="43" t="n"/>
+      <c r="D2" s="43" t="n"/>
+      <c r="E2" s="43" t="inlineStr">
         <is>
           <t>01031G</t>
         </is>
       </c>
-      <c r="F2" s="37" t="inlineStr">
+      <c r="F2" s="43" t="inlineStr">
         <is>
           <t>01032G</t>
         </is>
       </c>
-      <c r="G2" s="37" t="inlineStr">
+      <c r="G2" s="43" t="inlineStr">
         <is>
           <t>01051G</t>
         </is>
       </c>
-      <c r="H2" s="37" t="inlineStr">
+      <c r="H2" s="43" t="inlineStr">
         <is>
           <t>01052G</t>
         </is>
       </c>
-      <c r="I2" s="37" t="inlineStr">
+      <c r="I2" s="43" t="inlineStr">
         <is>
           <t>01071G</t>
         </is>
       </c>
-      <c r="J2" s="37" t="inlineStr">
+      <c r="J2" s="43" t="inlineStr">
         <is>
           <t>01072G</t>
         </is>
       </c>
-      <c r="K2" s="37" t="inlineStr">
+      <c r="K2" s="43" t="inlineStr">
         <is>
           <t>01091G</t>
         </is>
       </c>
-      <c r="L2" s="37" t="inlineStr">
+      <c r="L2" s="43" t="inlineStr">
         <is>
           <t>01092G</t>
         </is>
       </c>
-      <c r="M2" s="37" t="inlineStr">
+      <c r="M2" s="43" t="inlineStr">
         <is>
           <t>01111G</t>
         </is>
       </c>
-      <c r="N2" s="37" t="inlineStr">
+      <c r="N2" s="43" t="inlineStr">
         <is>
           <t>01112G</t>
         </is>
       </c>
-      <c r="O2" s="37" t="inlineStr">
+      <c r="O2" s="43" t="inlineStr">
         <is>
           <t>01131G</t>
         </is>
       </c>
-      <c r="P2" s="37" t="inlineStr">
+      <c r="P2" s="43" t="inlineStr">
         <is>
           <t>01132G</t>
         </is>
       </c>
-      <c r="Q2" s="37" t="inlineStr">
+      <c r="Q2" s="43" t="inlineStr">
         <is>
           <t>01151G</t>
         </is>
       </c>
-      <c r="R2" s="37" t="inlineStr">
+      <c r="R2" s="43" t="inlineStr">
         <is>
           <t>01152G</t>
         </is>
       </c>
-      <c r="S2" s="37" t="inlineStr">
+      <c r="S2" s="43" t="inlineStr">
         <is>
           <t>01171G</t>
         </is>
       </c>
-      <c r="T2" s="37" t="inlineStr">
+      <c r="T2" s="43" t="inlineStr">
         <is>
           <t>01172G</t>
         </is>
       </c>
-      <c r="U2" s="37" t="inlineStr">
+      <c r="U2" s="43" t="inlineStr">
         <is>
           <t>01191G</t>
         </is>
       </c>
-      <c r="V2" s="37" t="inlineStr">
+      <c r="V2" s="43" t="inlineStr">
         <is>
           <t>01192G</t>
         </is>
       </c>
-      <c r="W2" s="37" t="inlineStr">
+      <c r="W2" s="43" t="inlineStr">
         <is>
           <t>01211G</t>
         </is>
       </c>
-      <c r="X2" s="37" t="inlineStr">
+      <c r="X2" s="43" t="inlineStr">
         <is>
           <t>01212G</t>
         </is>
       </c>
-      <c r="Y2" s="37" t="inlineStr">
+      <c r="Y2" s="43" t="inlineStr">
         <is>
           <t>01231G</t>
         </is>
       </c>
-      <c r="Z2" s="37" t="inlineStr">
+      <c r="Z2" s="43" t="inlineStr">
         <is>
           <t>01232G</t>
         </is>
       </c>
-      <c r="AA2" s="37" t="inlineStr">
+      <c r="AA2" s="43" t="inlineStr">
         <is>
           <t>01251G</t>
         </is>
       </c>
-      <c r="AB2" s="37" t="inlineStr">
+      <c r="AB2" s="43" t="inlineStr">
         <is>
           <t>01252G</t>
         </is>
       </c>
-      <c r="AC2" s="37" t="inlineStr">
+      <c r="AC2" s="43" t="inlineStr">
         <is>
           <t>01271G</t>
         </is>
       </c>
-      <c r="AD2" s="37" t="inlineStr">
+      <c r="AD2" s="43" t="inlineStr">
         <is>
           <t>01272G</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="35" customHeight="1" s="19">
-      <c r="A3" s="45" t="n"/>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="39" t="n"/>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
+    <row r="3" ht="35" customHeight="1">
+      <c r="A3" s="51" t="n"/>
+      <c r="B3" s="45" t="n"/>
+      <c r="C3" s="45" t="n"/>
+      <c r="D3" s="45" t="n"/>
+      <c r="E3" s="45" t="n"/>
+      <c r="F3" s="45" t="n"/>
+      <c r="G3" s="45" t="n"/>
+      <c r="H3" s="45" t="n"/>
+      <c r="I3" s="45" t="n"/>
+      <c r="J3" s="45" t="n"/>
+      <c r="K3" s="45" t="n"/>
+      <c r="L3" s="45" t="n"/>
+      <c r="M3" s="45" t="n"/>
+      <c r="N3" s="45" t="n"/>
+      <c r="O3" s="45" t="n"/>
+      <c r="P3" s="45" t="n"/>
+      <c r="Q3" s="45" t="n"/>
+      <c r="R3" s="45" t="n"/>
+      <c r="S3" s="45" t="n"/>
+      <c r="T3" s="45" t="n"/>
+      <c r="U3" s="45" t="n"/>
+      <c r="V3" s="45" t="n"/>
+      <c r="W3" s="45" t="n"/>
+      <c r="X3" s="45" t="n"/>
+      <c r="Y3" s="45" t="n"/>
+      <c r="Z3" s="45" t="n"/>
+      <c r="AA3" s="45" t="n"/>
+      <c r="AB3" s="45" t="n"/>
+      <c r="AC3" s="45" t="n"/>
+      <c r="AD3" s="45" t="n"/>
     </row>
-    <row r="4" ht="11" customHeight="1" s="19">
-      <c r="A4" s="45" t="n"/>
-      <c r="B4" s="37" t="inlineStr">
+    <row r="4" ht="11" customHeight="1">
+      <c r="A4" s="51" t="n"/>
+      <c r="B4" s="43" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C4" s="37" t="n"/>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="37" t="inlineStr">
+      <c r="C4" s="43" t="n"/>
+      <c r="D4" s="43" t="n"/>
+      <c r="E4" s="43" t="inlineStr">
         <is>
           <t>01031F</t>
         </is>
       </c>
-      <c r="F4" s="37" t="inlineStr">
+      <c r="F4" s="43" t="inlineStr">
         <is>
           <t>01032F</t>
         </is>
       </c>
-      <c r="G4" s="37" t="inlineStr">
+      <c r="G4" s="43" t="inlineStr">
         <is>
           <t>01051F</t>
         </is>
       </c>
-      <c r="H4" s="37" t="inlineStr">
+      <c r="H4" s="43" t="inlineStr">
         <is>
           <t>01052F</t>
         </is>
       </c>
-      <c r="I4" s="37" t="inlineStr">
+      <c r="I4" s="43" t="inlineStr">
         <is>
           <t>01071F</t>
         </is>
       </c>
-      <c r="J4" s="37" t="inlineStr">
+      <c r="J4" s="43" t="inlineStr">
         <is>
           <t>01072F</t>
         </is>
       </c>
-      <c r="K4" s="37" t="inlineStr">
+      <c r="K4" s="43" t="inlineStr">
         <is>
           <t>01091F</t>
         </is>
       </c>
-      <c r="L4" s="37" t="inlineStr">
+      <c r="L4" s="43" t="inlineStr">
         <is>
           <t>01092F</t>
         </is>
       </c>
-      <c r="M4" s="37" t="inlineStr">
+      <c r="M4" s="43" t="inlineStr">
         <is>
           <t>01111F</t>
         </is>
       </c>
-      <c r="N4" s="37" t="inlineStr">
+      <c r="N4" s="43" t="inlineStr">
         <is>
           <t>01112F</t>
         </is>
       </c>
-      <c r="O4" s="37" t="inlineStr">
+      <c r="O4" s="43" t="inlineStr">
         <is>
           <t>01131F</t>
         </is>
       </c>
-      <c r="P4" s="37" t="inlineStr">
+      <c r="P4" s="43" t="inlineStr">
         <is>
           <t>01132F</t>
         </is>
       </c>
-      <c r="Q4" s="37" t="inlineStr">
+      <c r="Q4" s="43" t="inlineStr">
         <is>
           <t>01151F</t>
         </is>
       </c>
-      <c r="R4" s="37" t="inlineStr">
+      <c r="R4" s="43" t="inlineStr">
         <is>
           <t>01152F</t>
         </is>
       </c>
-      <c r="S4" s="37" t="inlineStr">
+      <c r="S4" s="43" t="inlineStr">
         <is>
           <t>01171F</t>
         </is>
       </c>
-      <c r="T4" s="37" t="inlineStr">
+      <c r="T4" s="43" t="inlineStr">
         <is>
           <t>01172F</t>
         </is>
       </c>
-      <c r="U4" s="37" t="inlineStr">
+      <c r="U4" s="43" t="inlineStr">
         <is>
           <t>01191F</t>
         </is>
       </c>
-      <c r="V4" s="37" t="inlineStr">
+      <c r="V4" s="43" t="inlineStr">
         <is>
           <t>01192F</t>
         </is>
       </c>
-      <c r="W4" s="37" t="inlineStr">
+      <c r="W4" s="43" t="inlineStr">
         <is>
           <t>01211F</t>
         </is>
       </c>
-      <c r="X4" s="37" t="inlineStr">
+      <c r="X4" s="43" t="inlineStr">
         <is>
           <t>01212F</t>
         </is>
       </c>
-      <c r="Y4" s="37" t="inlineStr">
+      <c r="Y4" s="43" t="inlineStr">
         <is>
           <t>01231F</t>
         </is>
       </c>
-      <c r="Z4" s="37" t="inlineStr">
+      <c r="Z4" s="43" t="inlineStr">
         <is>
           <t>01232F</t>
         </is>
       </c>
-      <c r="AA4" s="37" t="inlineStr">
+      <c r="AA4" s="43" t="inlineStr">
         <is>
           <t>01251F</t>
         </is>
       </c>
-      <c r="AB4" s="37" t="inlineStr">
+      <c r="AB4" s="43" t="inlineStr">
         <is>
           <t>01252F</t>
         </is>
       </c>
-      <c r="AC4" s="37" t="inlineStr">
+      <c r="AC4" s="43" t="inlineStr">
         <is>
           <t>01271F</t>
         </is>
       </c>
-      <c r="AD4" s="37" t="inlineStr">
+      <c r="AD4" s="43" t="inlineStr">
         <is>
           <t>01272F</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="35" customHeight="1" s="19">
-      <c r="A5" s="45" t="n"/>
-      <c r="B5" s="39" t="n"/>
-      <c r="C5" s="39" t="n"/>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="51" t="n"/>
+      <c r="B5" s="45" t="n"/>
+      <c r="C5" s="45" t="n"/>
+      <c r="D5" s="45" t="n"/>
+      <c r="E5" s="45" t="n"/>
+      <c r="F5" s="45" t="n"/>
+      <c r="G5" s="45" t="inlineStr">
+        <is>
+          <t>RW200254-</t>
+        </is>
+      </c>
+      <c r="H5" s="45" t="n"/>
+      <c r="I5" s="45" t="inlineStr">
+        <is>
+          <t>RW200202-</t>
+        </is>
+      </c>
+      <c r="J5" s="45" t="n"/>
+      <c r="K5" s="45" t="n"/>
+      <c r="L5" s="45" t="inlineStr">
+        <is>
+          <t>RW200157-</t>
+        </is>
+      </c>
+      <c r="M5" s="45" t="n"/>
+      <c r="N5" s="45" t="n"/>
+      <c r="O5" s="45" t="n"/>
+      <c r="P5" s="45" t="n"/>
+      <c r="Q5" s="45" t="n"/>
+      <c r="R5" s="45" t="n"/>
+      <c r="S5" s="45" t="n"/>
+      <c r="T5" s="45" t="n"/>
+      <c r="U5" s="45" t="n"/>
+      <c r="V5" s="45" t="n"/>
+      <c r="W5" s="45" t="n"/>
+      <c r="X5" s="45" t="inlineStr">
+        <is>
+          <t>RW200037-</t>
+        </is>
+      </c>
+      <c r="Y5" s="45" t="n"/>
+      <c r="Z5" s="45" t="n"/>
+      <c r="AA5" s="45" t="n"/>
+      <c r="AB5" s="45" t="n"/>
+      <c r="AC5" s="45" t="n"/>
+      <c r="AD5" s="45" t="n"/>
     </row>
-    <row r="6" ht="11" customHeight="1" s="19">
-      <c r="A6" s="45" t="n"/>
-      <c r="B6" s="37" t="inlineStr">
+    <row r="6" ht="11" customHeight="1">
+      <c r="A6" s="51" t="n"/>
+      <c r="B6" s="43" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C6" s="37" t="n"/>
-      <c r="D6" s="37" t="n"/>
-      <c r="E6" s="37" t="inlineStr">
+      <c r="C6" s="43" t="n"/>
+      <c r="D6" s="43" t="n"/>
+      <c r="E6" s="43" t="inlineStr">
         <is>
           <t>01031E</t>
         </is>
       </c>
-      <c r="F6" s="37" t="inlineStr">
+      <c r="F6" s="43" t="inlineStr">
         <is>
           <t>01032E</t>
         </is>
       </c>
-      <c r="G6" s="37" t="inlineStr">
+      <c r="G6" s="43" t="inlineStr">
         <is>
           <t>01051E</t>
         </is>
       </c>
-      <c r="H6" s="37" t="inlineStr">
+      <c r="H6" s="43" t="inlineStr">
         <is>
           <t>01052E</t>
         </is>
       </c>
-      <c r="I6" s="37" t="inlineStr">
+      <c r="I6" s="43" t="inlineStr">
         <is>
           <t>01071E</t>
         </is>
       </c>
-      <c r="J6" s="37" t="inlineStr">
+      <c r="J6" s="43" t="inlineStr">
         <is>
           <t>01072E</t>
         </is>
       </c>
-      <c r="K6" s="37" t="inlineStr">
+      <c r="K6" s="43" t="inlineStr">
         <is>
           <t>01091E</t>
         </is>
       </c>
-      <c r="L6" s="37" t="inlineStr">
+      <c r="L6" s="43" t="inlineStr">
         <is>
           <t>01092E</t>
         </is>
       </c>
-      <c r="M6" s="37" t="inlineStr">
+      <c r="M6" s="43" t="inlineStr">
         <is>
           <t>01111E</t>
         </is>
       </c>
-      <c r="N6" s="37" t="inlineStr">
+      <c r="N6" s="43" t="inlineStr">
         <is>
           <t>01112E</t>
         </is>
       </c>
-      <c r="O6" s="37" t="inlineStr">
+      <c r="O6" s="43" t="inlineStr">
         <is>
           <t>01131E</t>
         </is>
       </c>
-      <c r="P6" s="37" t="inlineStr">
+      <c r="P6" s="43" t="inlineStr">
         <is>
           <t>01132E</t>
         </is>
       </c>
-      <c r="Q6" s="37" t="inlineStr">
+      <c r="Q6" s="43" t="inlineStr">
         <is>
           <t>01151E</t>
         </is>
       </c>
-      <c r="R6" s="37" t="inlineStr">
+      <c r="R6" s="43" t="inlineStr">
         <is>
           <t>01152E</t>
         </is>
       </c>
-      <c r="S6" s="37" t="inlineStr">
+      <c r="S6" s="43" t="inlineStr">
         <is>
           <t>01171E</t>
         </is>
       </c>
-      <c r="T6" s="37" t="inlineStr">
+      <c r="T6" s="43" t="inlineStr">
         <is>
           <t>01172E</t>
         </is>
       </c>
-      <c r="U6" s="37" t="inlineStr">
+      <c r="U6" s="43" t="inlineStr">
         <is>
           <t>01191E</t>
         </is>
       </c>
-      <c r="V6" s="37" t="inlineStr">
+      <c r="V6" s="43" t="inlineStr">
         <is>
           <t>01192E</t>
         </is>
       </c>
-      <c r="W6" s="37" t="inlineStr">
+      <c r="W6" s="43" t="inlineStr">
         <is>
           <t>01211E</t>
         </is>
       </c>
-      <c r="X6" s="37" t="inlineStr">
+      <c r="X6" s="43" t="inlineStr">
         <is>
           <t>01212E</t>
         </is>
       </c>
-      <c r="Y6" s="37" t="inlineStr">
+      <c r="Y6" s="43" t="inlineStr">
         <is>
           <t>01231E</t>
         </is>
       </c>
-      <c r="Z6" s="37" t="inlineStr">
+      <c r="Z6" s="43" t="inlineStr">
         <is>
           <t>01232E</t>
         </is>
       </c>
-      <c r="AA6" s="37" t="inlineStr">
+      <c r="AA6" s="43" t="inlineStr">
         <is>
           <t>01251E</t>
         </is>
       </c>
-      <c r="AB6" s="37" t="inlineStr">
+      <c r="AB6" s="43" t="inlineStr">
         <is>
           <t>01252E</t>
         </is>
       </c>
-      <c r="AC6" s="37" t="inlineStr">
+      <c r="AC6" s="43" t="inlineStr">
         <is>
           <t>01271E</t>
         </is>
       </c>
-      <c r="AD6" s="37" t="inlineStr">
+      <c r="AD6" s="43" t="inlineStr">
         <is>
           <t>01272E</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="35" customHeight="1" s="19">
-      <c r="A7" s="45" t="n"/>
-      <c r="B7" s="39" t="n"/>
-      <c r="C7" s="39" t="n"/>
-      <c r="D7" s="39" t="n"/>
-      <c r="E7" s="39" t="n"/>
-      <c r="F7" s="39" t="n"/>
-      <c r="G7" s="39" t="n"/>
-      <c r="H7" s="39" t="n"/>
-      <c r="I7" s="39" t="n"/>
-      <c r="J7" s="39" t="n"/>
-      <c r="K7" s="39" t="n"/>
-      <c r="L7" s="39" t="n"/>
-      <c r="M7" s="39" t="n"/>
-      <c r="N7" s="39" t="n"/>
-      <c r="O7" s="39" t="n"/>
-      <c r="P7" s="39" t="n"/>
-      <c r="Q7" s="39" t="n"/>
-      <c r="R7" s="39" t="n"/>
-      <c r="S7" s="39" t="n"/>
-      <c r="T7" s="39" t="n"/>
-      <c r="U7" s="39" t="n"/>
-      <c r="V7" s="39" t="n"/>
-      <c r="W7" s="39" t="n"/>
-      <c r="X7" s="39" t="n"/>
-      <c r="Y7" s="39" t="n"/>
-      <c r="Z7" s="39" t="n"/>
-      <c r="AA7" s="39" t="n"/>
-      <c r="AB7" s="39" t="n"/>
-      <c r="AC7" s="39" t="n"/>
-      <c r="AD7" s="39" t="n"/>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="51" t="n"/>
+      <c r="B7" s="45" t="n"/>
+      <c r="C7" s="45" t="n"/>
+      <c r="D7" s="45" t="n"/>
+      <c r="E7" s="45" t="n"/>
+      <c r="F7" s="45" t="n"/>
+      <c r="G7" s="45" t="inlineStr">
+        <is>
+          <t>RW200211-</t>
+        </is>
+      </c>
+      <c r="H7" s="45" t="n"/>
+      <c r="I7" s="45" t="n"/>
+      <c r="J7" s="45" t="inlineStr">
+        <is>
+          <t>RW200272-</t>
+        </is>
+      </c>
+      <c r="K7" s="45" t="inlineStr">
+        <is>
+          <t>RW200206-</t>
+        </is>
+      </c>
+      <c r="L7" s="45" t="n"/>
+      <c r="M7" s="45" t="n"/>
+      <c r="N7" s="45" t="n"/>
+      <c r="O7" s="45" t="n"/>
+      <c r="P7" s="45" t="n"/>
+      <c r="Q7" s="45" t="inlineStr">
+        <is>
+          <t>RW200308-</t>
+        </is>
+      </c>
+      <c r="R7" s="45" t="n"/>
+      <c r="S7" s="45" t="n"/>
+      <c r="T7" s="45" t="n"/>
+      <c r="U7" s="45" t="n"/>
+      <c r="V7" s="45" t="n"/>
+      <c r="W7" s="45" t="n"/>
+      <c r="X7" s="45" t="inlineStr">
+        <is>
+          <t>RW200212-</t>
+        </is>
+      </c>
+      <c r="Y7" s="45" t="n"/>
+      <c r="Z7" s="45" t="n"/>
+      <c r="AA7" s="45" t="n"/>
+      <c r="AB7" s="45" t="n"/>
+      <c r="AC7" s="45" t="n"/>
+      <c r="AD7" s="45" t="n"/>
     </row>
-    <row r="8" ht="11" customHeight="1" s="19">
-      <c r="A8" s="45" t="n"/>
-      <c r="B8" s="37" t="inlineStr">
+    <row r="8" ht="11" customHeight="1">
+      <c r="A8" s="51" t="n"/>
+      <c r="B8" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C8" s="37" t="n"/>
-      <c r="D8" s="37" t="n"/>
-      <c r="E8" s="37" t="inlineStr">
+      <c r="C8" s="43" t="n"/>
+      <c r="D8" s="43" t="n"/>
+      <c r="E8" s="43" t="inlineStr">
         <is>
           <t>01031D</t>
         </is>
       </c>
-      <c r="F8" s="37" t="inlineStr">
+      <c r="F8" s="43" t="inlineStr">
         <is>
           <t>01032D</t>
         </is>
       </c>
-      <c r="G8" s="37" t="inlineStr">
+      <c r="G8" s="43" t="inlineStr">
         <is>
           <t>01051D</t>
         </is>
       </c>
-      <c r="H8" s="37" t="inlineStr">
+      <c r="H8" s="43" t="inlineStr">
         <is>
           <t>01052D</t>
         </is>
       </c>
-      <c r="I8" s="37" t="inlineStr">
+      <c r="I8" s="43" t="inlineStr">
         <is>
           <t>01071D</t>
         </is>
       </c>
-      <c r="J8" s="37" t="inlineStr">
+      <c r="J8" s="43" t="inlineStr">
         <is>
           <t>01072D</t>
         </is>
       </c>
-      <c r="K8" s="37" t="inlineStr">
+      <c r="K8" s="43" t="inlineStr">
         <is>
           <t>01091D</t>
         </is>
       </c>
-      <c r="L8" s="37" t="inlineStr">
+      <c r="L8" s="43" t="inlineStr">
         <is>
           <t>01092D</t>
         </is>
       </c>
-      <c r="M8" s="37" t="inlineStr">
+      <c r="M8" s="43" t="inlineStr">
         <is>
           <t>01111D</t>
         </is>
       </c>
-      <c r="N8" s="37" t="inlineStr">
+      <c r="N8" s="43" t="inlineStr">
         <is>
           <t>01112D</t>
         </is>
       </c>
-      <c r="O8" s="37" t="inlineStr">
+      <c r="O8" s="43" t="inlineStr">
         <is>
           <t>01131D</t>
         </is>
       </c>
-      <c r="P8" s="37" t="inlineStr">
+      <c r="P8" s="43" t="inlineStr">
         <is>
           <t>01132D</t>
         </is>
       </c>
-      <c r="Q8" s="37" t="inlineStr">
+      <c r="Q8" s="43" t="inlineStr">
         <is>
           <t>01151D</t>
         </is>
       </c>
-      <c r="R8" s="37" t="inlineStr">
+      <c r="R8" s="43" t="inlineStr">
         <is>
           <t>01152D</t>
         </is>
       </c>
-      <c r="S8" s="37" t="inlineStr">
+      <c r="S8" s="43" t="inlineStr">
         <is>
           <t>01171D</t>
         </is>
       </c>
-      <c r="T8" s="37" t="inlineStr">
+      <c r="T8" s="43" t="inlineStr">
         <is>
           <t>01172D</t>
         </is>
       </c>
-      <c r="U8" s="37" t="inlineStr">
+      <c r="U8" s="43" t="inlineStr">
         <is>
           <t>01191D</t>
         </is>
       </c>
-      <c r="V8" s="37" t="inlineStr">
+      <c r="V8" s="43" t="inlineStr">
         <is>
           <t>01192D</t>
         </is>
       </c>
-      <c r="W8" s="37" t="inlineStr">
+      <c r="W8" s="43" t="inlineStr">
         <is>
           <t>01211D</t>
         </is>
       </c>
-      <c r="X8" s="37" t="inlineStr">
+      <c r="X8" s="43" t="inlineStr">
         <is>
           <t>01212D</t>
         </is>
       </c>
-      <c r="Y8" s="37" t="inlineStr">
+      <c r="Y8" s="43" t="inlineStr">
         <is>
           <t>01231D</t>
         </is>
       </c>
-      <c r="Z8" s="37" t="inlineStr">
+      <c r="Z8" s="43" t="inlineStr">
         <is>
           <t>01232D</t>
         </is>
       </c>
-      <c r="AA8" s="37" t="inlineStr">
+      <c r="AA8" s="43" t="inlineStr">
         <is>
           <t>01251D</t>
         </is>
       </c>
-      <c r="AB8" s="37" t="inlineStr">
+      <c r="AB8" s="43" t="inlineStr">
         <is>
           <t>01252D</t>
         </is>
       </c>
-      <c r="AC8" s="37" t="inlineStr">
+      <c r="AC8" s="43" t="inlineStr">
         <is>
           <t>01271D</t>
         </is>
       </c>
-      <c r="AD8" s="37" t="inlineStr">
+      <c r="AD8" s="43" t="inlineStr">
         <is>
           <t>01272D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="35" customHeight="1" s="19">
-      <c r="A9" s="45" t="n"/>
-      <c r="B9" s="39" t="n"/>
-      <c r="C9" s="39" t="n"/>
-      <c r="D9" s="39" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="39" t="n"/>
-      <c r="G9" s="39" t="n"/>
-      <c r="H9" s="39" t="n"/>
-      <c r="I9" s="39" t="n"/>
-      <c r="J9" s="39" t="n"/>
-      <c r="K9" s="39" t="n"/>
-      <c r="L9" s="39" t="n"/>
-      <c r="M9" s="39" t="n"/>
-      <c r="N9" s="39" t="n"/>
-      <c r="O9" s="39" t="n"/>
-      <c r="P9" s="39" t="n"/>
-      <c r="Q9" s="39" t="n"/>
-      <c r="R9" s="39" t="n"/>
-      <c r="S9" s="39" t="n"/>
-      <c r="T9" s="39" t="n"/>
-      <c r="U9" s="39" t="n"/>
-      <c r="V9" s="39" t="n"/>
-      <c r="W9" s="39" t="n"/>
-      <c r="X9" s="39" t="n"/>
-      <c r="Y9" s="39" t="n"/>
-      <c r="Z9" s="39" t="n"/>
-      <c r="AA9" s="39" t="n"/>
-      <c r="AB9" s="39" t="n"/>
-      <c r="AC9" s="39" t="n"/>
-      <c r="AD9" s="39" t="n"/>
+    <row r="9" ht="35" customHeight="1">
+      <c r="A9" s="51" t="n"/>
+      <c r="B9" s="45" t="n"/>
+      <c r="C9" s="45" t="n"/>
+      <c r="D9" s="45" t="n"/>
+      <c r="E9" s="45" t="n"/>
+      <c r="F9" s="45" t="n"/>
+      <c r="G9" s="45" t="n"/>
+      <c r="H9" s="45" t="n"/>
+      <c r="I9" s="45" t="n"/>
+      <c r="J9" s="45" t="n"/>
+      <c r="K9" s="45" t="n"/>
+      <c r="L9" s="45" t="n"/>
+      <c r="M9" s="45" t="n"/>
+      <c r="N9" s="45" t="n"/>
+      <c r="O9" s="45" t="n"/>
+      <c r="P9" s="45" t="n"/>
+      <c r="Q9" s="45" t="n"/>
+      <c r="R9" s="45" t="n"/>
+      <c r="S9" s="45" t="n"/>
+      <c r="T9" s="45" t="n"/>
+      <c r="U9" s="45" t="n"/>
+      <c r="V9" s="45" t="n"/>
+      <c r="W9" s="45" t="n"/>
+      <c r="X9" s="45" t="n"/>
+      <c r="Y9" s="45" t="n"/>
+      <c r="Z9" s="45" t="n"/>
+      <c r="AA9" s="45" t="n"/>
+      <c r="AB9" s="45" t="n"/>
+      <c r="AC9" s="45" t="n"/>
+      <c r="AD9" s="45" t="n"/>
     </row>
-    <row r="10" ht="11" customHeight="1" s="19">
-      <c r="A10" s="45" t="n"/>
-      <c r="B10" s="37" t="inlineStr">
+    <row r="10" ht="11" customHeight="1">
+      <c r="A10" s="51" t="n"/>
+      <c r="B10" s="43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C10" s="37" t="n"/>
-      <c r="D10" s="37" t="n"/>
-      <c r="E10" s="37" t="inlineStr">
+      <c r="C10" s="43" t="n"/>
+      <c r="D10" s="43" t="n"/>
+      <c r="E10" s="43" t="inlineStr">
         <is>
           <t>01031C</t>
         </is>
       </c>
-      <c r="F10" s="37" t="inlineStr">
+      <c r="F10" s="43" t="inlineStr">
         <is>
           <t>01032C</t>
         </is>
       </c>
-      <c r="G10" s="37" t="inlineStr">
+      <c r="G10" s="43" t="inlineStr">
         <is>
           <t>01051C</t>
         </is>
       </c>
-      <c r="H10" s="37" t="inlineStr">
+      <c r="H10" s="43" t="inlineStr">
         <is>
           <t>01052C</t>
         </is>
       </c>
-      <c r="I10" s="37" t="inlineStr">
+      <c r="I10" s="43" t="inlineStr">
         <is>
           <t>01071C</t>
         </is>
       </c>
-      <c r="J10" s="37" t="inlineStr">
+      <c r="J10" s="43" t="inlineStr">
         <is>
           <t>01072C</t>
         </is>
       </c>
-      <c r="K10" s="37" t="inlineStr">
+      <c r="K10" s="43" t="inlineStr">
         <is>
           <t>01091C</t>
         </is>
       </c>
-      <c r="L10" s="37" t="inlineStr">
+      <c r="L10" s="43" t="inlineStr">
         <is>
           <t>01092C</t>
         </is>
       </c>
-      <c r="M10" s="37" t="inlineStr">
+      <c r="M10" s="43" t="inlineStr">
         <is>
           <t>01111C</t>
         </is>
       </c>
-      <c r="N10" s="37" t="inlineStr">
+      <c r="N10" s="43" t="inlineStr">
         <is>
           <t>01112C</t>
         </is>
       </c>
-      <c r="O10" s="37" t="inlineStr">
+      <c r="O10" s="43" t="inlineStr">
         <is>
           <t>01131C</t>
         </is>
       </c>
-      <c r="P10" s="37" t="inlineStr">
+      <c r="P10" s="43" t="inlineStr">
         <is>
           <t>01132C</t>
         </is>
       </c>
-      <c r="Q10" s="37" t="inlineStr">
+      <c r="Q10" s="43" t="inlineStr">
         <is>
           <t>01151C</t>
         </is>
       </c>
-      <c r="R10" s="37" t="inlineStr">
+      <c r="R10" s="43" t="inlineStr">
         <is>
           <t>01152C</t>
         </is>
       </c>
-      <c r="S10" s="37" t="inlineStr">
+      <c r="S10" s="43" t="inlineStr">
         <is>
           <t>01171C</t>
         </is>
       </c>
-      <c r="T10" s="37" t="inlineStr">
+      <c r="T10" s="43" t="inlineStr">
         <is>
           <t>01172C</t>
         </is>
       </c>
-      <c r="U10" s="37" t="inlineStr">
+      <c r="U10" s="43" t="inlineStr">
         <is>
           <t>01191C</t>
         </is>
       </c>
-      <c r="V10" s="37" t="inlineStr">
+      <c r="V10" s="43" t="inlineStr">
         <is>
           <t>01192C</t>
         </is>
       </c>
-      <c r="W10" s="37" t="inlineStr">
+      <c r="W10" s="43" t="inlineStr">
         <is>
           <t>01211C</t>
         </is>
       </c>
-      <c r="X10" s="37" t="inlineStr">
+      <c r="X10" s="43" t="inlineStr">
         <is>
           <t>01212C</t>
         </is>
       </c>
-      <c r="Y10" s="37" t="inlineStr">
+      <c r="Y10" s="43" t="inlineStr">
         <is>
           <t>01231C</t>
         </is>
       </c>
-      <c r="Z10" s="37" t="inlineStr">
+      <c r="Z10" s="43" t="inlineStr">
         <is>
           <t>01232C</t>
         </is>
       </c>
-      <c r="AA10" s="37" t="inlineStr">
+      <c r="AA10" s="43" t="inlineStr">
         <is>
           <t>01251C</t>
         </is>
       </c>
-      <c r="AB10" s="37" t="inlineStr">
+      <c r="AB10" s="43" t="inlineStr">
         <is>
           <t>01252C</t>
         </is>
       </c>
-      <c r="AC10" s="37" t="inlineStr">
+      <c r="AC10" s="43" t="inlineStr">
         <is>
           <t>01271C</t>
         </is>
       </c>
-      <c r="AD10" s="37" t="inlineStr">
+      <c r="AD10" s="43" t="inlineStr">
         <is>
           <t>01272C</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="35" customHeight="1" s="19">
-      <c r="A11" s="45" t="n"/>
-      <c r="B11" s="39" t="n"/>
-      <c r="C11" s="39" t="n"/>
-      <c r="D11" s="39" t="n"/>
-      <c r="E11" s="39" t="n"/>
-      <c r="F11" s="39" t="n"/>
-      <c r="G11" s="39" t="n"/>
-      <c r="H11" s="39" t="n"/>
-      <c r="I11" s="39" t="n"/>
-      <c r="J11" s="39" t="n"/>
-      <c r="K11" s="39" t="n"/>
-      <c r="L11" s="39" t="n"/>
-      <c r="M11" s="39" t="n"/>
-      <c r="N11" s="39" t="n"/>
-      <c r="O11" s="39" t="n"/>
-      <c r="P11" s="39" t="n"/>
-      <c r="Q11" s="39" t="n"/>
-      <c r="R11" s="39" t="n"/>
-      <c r="S11" s="39" t="n"/>
-      <c r="T11" s="39" t="n"/>
-      <c r="U11" s="39" t="n"/>
-      <c r="V11" s="39" t="n"/>
-      <c r="W11" s="39" t="n"/>
-      <c r="X11" s="39" t="n"/>
-      <c r="Y11" s="39" t="n"/>
-      <c r="Z11" s="39" t="n"/>
-      <c r="AA11" s="39" t="n"/>
-      <c r="AB11" s="39" t="n"/>
-      <c r="AC11" s="39" t="n"/>
-      <c r="AD11" s="39" t="n"/>
+    <row r="11" ht="35" customHeight="1">
+      <c r="A11" s="51" t="n"/>
+      <c r="B11" s="45" t="n"/>
+      <c r="C11" s="45" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="45" t="n"/>
+      <c r="K11" s="45" t="n"/>
+      <c r="L11" s="45" t="n"/>
+      <c r="M11" s="45" t="n"/>
+      <c r="N11" s="45" t="n"/>
+      <c r="O11" s="45" t="n"/>
+      <c r="P11" s="45" t="n"/>
+      <c r="Q11" s="45" t="n"/>
+      <c r="R11" s="45" t="n"/>
+      <c r="S11" s="45" t="n"/>
+      <c r="T11" s="45" t="n"/>
+      <c r="U11" s="45" t="n"/>
+      <c r="V11" s="45" t="n"/>
+      <c r="W11" s="45" t="n"/>
+      <c r="X11" s="45" t="n"/>
+      <c r="Y11" s="45" t="n"/>
+      <c r="Z11" s="45" t="n"/>
+      <c r="AA11" s="45" t="n"/>
+      <c r="AB11" s="45" t="n"/>
+      <c r="AC11" s="45" t="n"/>
+      <c r="AD11" s="45" t="n"/>
     </row>
-    <row r="12" ht="11" customHeight="1" s="19">
-      <c r="A12" s="45" t="n"/>
-      <c r="B12" s="37" t="inlineStr">
+    <row r="12" ht="11" customHeight="1">
+      <c r="A12" s="51" t="n"/>
+      <c r="B12" s="43" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C12" s="37" t="n"/>
-      <c r="D12" s="37" t="n"/>
-      <c r="E12" s="37" t="inlineStr">
+      <c r="C12" s="43" t="n"/>
+      <c r="D12" s="43" t="n"/>
+      <c r="E12" s="43" t="inlineStr">
         <is>
           <t>01031B</t>
         </is>
       </c>
-      <c r="F12" s="37" t="inlineStr">
+      <c r="F12" s="43" t="inlineStr">
         <is>
           <t>01032B</t>
         </is>
       </c>
-      <c r="G12" s="37" t="inlineStr">
+      <c r="G12" s="43" t="inlineStr">
         <is>
           <t>01051B</t>
         </is>
       </c>
-      <c r="H12" s="37" t="inlineStr">
+      <c r="H12" s="43" t="inlineStr">
         <is>
           <t>01052B</t>
         </is>
       </c>
-      <c r="I12" s="37" t="inlineStr">
+      <c r="I12" s="43" t="inlineStr">
         <is>
           <t>01071B</t>
         </is>
       </c>
-      <c r="J12" s="37" t="inlineStr">
+      <c r="J12" s="43" t="inlineStr">
         <is>
           <t>01072B</t>
         </is>
       </c>
-      <c r="K12" s="37" t="inlineStr">
+      <c r="K12" s="43" t="inlineStr">
         <is>
           <t>01091B</t>
         </is>
       </c>
-      <c r="L12" s="37" t="inlineStr">
+      <c r="L12" s="43" t="inlineStr">
         <is>
           <t>01092B</t>
         </is>
       </c>
-      <c r="M12" s="37" t="inlineStr">
+      <c r="M12" s="43" t="inlineStr">
         <is>
           <t>01111B</t>
         </is>
       </c>
-      <c r="N12" s="37" t="inlineStr">
+      <c r="N12" s="43" t="inlineStr">
         <is>
           <t>01112B</t>
         </is>
       </c>
-      <c r="O12" s="37" t="inlineStr">
+      <c r="O12" s="43" t="inlineStr">
         <is>
           <t>01131B</t>
         </is>
       </c>
-      <c r="P12" s="37" t="inlineStr">
+      <c r="P12" s="43" t="inlineStr">
         <is>
           <t>01132B</t>
         </is>
       </c>
-      <c r="Q12" s="37" t="inlineStr">
+      <c r="Q12" s="43" t="inlineStr">
         <is>
           <t>01151B</t>
         </is>
       </c>
-      <c r="R12" s="37" t="inlineStr">
+      <c r="R12" s="43" t="inlineStr">
         <is>
           <t>01152B</t>
         </is>
       </c>
-      <c r="S12" s="37" t="inlineStr">
+      <c r="S12" s="43" t="inlineStr">
         <is>
           <t>01171B</t>
         </is>
       </c>
-      <c r="T12" s="37" t="inlineStr">
+      <c r="T12" s="43" t="inlineStr">
         <is>
           <t>01172B</t>
         </is>
       </c>
-      <c r="U12" s="37" t="inlineStr">
+      <c r="U12" s="43" t="inlineStr">
         <is>
           <t>01191B</t>
         </is>
       </c>
-      <c r="V12" s="37" t="inlineStr">
+      <c r="V12" s="43" t="inlineStr">
         <is>
           <t>01192B</t>
         </is>
       </c>
-      <c r="W12" s="37" t="inlineStr">
+      <c r="W12" s="43" t="inlineStr">
         <is>
           <t>01211B</t>
         </is>
       </c>
-      <c r="X12" s="37" t="inlineStr">
+      <c r="X12" s="43" t="inlineStr">
         <is>
           <t>01212B</t>
         </is>
       </c>
-      <c r="Y12" s="37" t="inlineStr">
+      <c r="Y12" s="43" t="inlineStr">
         <is>
           <t>01231B</t>
         </is>
       </c>
-      <c r="Z12" s="37" t="inlineStr">
+      <c r="Z12" s="43" t="inlineStr">
         <is>
           <t>01232B</t>
         </is>
       </c>
-      <c r="AA12" s="37" t="inlineStr">
+      <c r="AA12" s="43" t="inlineStr">
         <is>
           <t>01251B</t>
         </is>
       </c>
-      <c r="AB12" s="37" t="inlineStr">
+      <c r="AB12" s="43" t="inlineStr">
         <is>
           <t>01252B</t>
         </is>
       </c>
-      <c r="AC12" s="37" t="inlineStr">
+      <c r="AC12" s="43" t="inlineStr">
         <is>
           <t>01271B</t>
         </is>
       </c>
-      <c r="AD12" s="37" t="inlineStr">
+      <c r="AD12" s="43" t="inlineStr">
         <is>
           <t>01272B</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="35" customHeight="1" s="19">
-      <c r="A13" s="46" t="n"/>
-      <c r="B13" s="39" t="n"/>
-      <c r="C13" s="39" t="n"/>
-      <c r="D13" s="39" t="n"/>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="39" t="n"/>
-      <c r="G13" s="39" t="n"/>
-      <c r="H13" s="39" t="n"/>
-      <c r="I13" s="39" t="n"/>
-      <c r="J13" s="39" t="n"/>
-      <c r="K13" s="39" t="n"/>
-      <c r="L13" s="39" t="n"/>
-      <c r="M13" s="39" t="n"/>
-      <c r="N13" s="39" t="n"/>
-      <c r="O13" s="39" t="n"/>
-      <c r="P13" s="39" t="n"/>
-      <c r="Q13" s="39" t="n"/>
-      <c r="R13" s="39" t="n"/>
-      <c r="S13" s="39" t="n"/>
-      <c r="T13" s="39" t="n"/>
-      <c r="U13" s="39" t="n"/>
-      <c r="V13" s="39" t="n"/>
-      <c r="W13" s="39" t="n"/>
-      <c r="X13" s="39" t="n"/>
-      <c r="Y13" s="39" t="n"/>
-      <c r="Z13" s="39" t="n"/>
-      <c r="AA13" s="39" t="n"/>
-      <c r="AB13" s="39" t="n"/>
-      <c r="AC13" s="39" t="n"/>
-      <c r="AD13" s="39" t="n"/>
+    <row r="13" ht="35" customHeight="1">
+      <c r="A13" s="51" t="n"/>
+      <c r="B13" s="45" t="n"/>
+      <c r="C13" s="45" t="n"/>
+      <c r="D13" s="45" t="n"/>
+      <c r="E13" s="45" t="n"/>
+      <c r="F13" s="45" t="n"/>
+      <c r="G13" s="45" t="n"/>
+      <c r="H13" s="45" t="n"/>
+      <c r="I13" s="45" t="n"/>
+      <c r="J13" s="45" t="n"/>
+      <c r="K13" s="45" t="n"/>
+      <c r="L13" s="45" t="n"/>
+      <c r="M13" s="45" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
+      <c r="W13" s="45" t="n"/>
+      <c r="X13" s="45" t="n"/>
+      <c r="Y13" s="45" t="n"/>
+      <c r="Z13" s="45" t="n"/>
+      <c r="AA13" s="45" t="n"/>
+      <c r="AB13" s="45" t="n"/>
+      <c r="AC13" s="45" t="n"/>
+      <c r="AD13" s="45" t="n"/>
     </row>
-    <row r="14" ht="11" customHeight="1" s="19">
-      <c r="A14" s="38" t="n"/>
-      <c r="B14" s="37" t="inlineStr">
+    <row r="14" ht="11" customHeight="1">
+      <c r="A14" s="51" t="n"/>
+      <c r="B14" s="43" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C14" s="37" t="n"/>
-      <c r="D14" s="37" t="n"/>
-      <c r="E14" s="37" t="inlineStr">
+      <c r="C14" s="43" t="n"/>
+      <c r="D14" s="43" t="n"/>
+      <c r="E14" s="43" t="inlineStr">
         <is>
           <t>01031A</t>
         </is>
       </c>
-      <c r="F14" s="37" t="inlineStr">
+      <c r="F14" s="43" t="inlineStr">
         <is>
           <t>01032A</t>
         </is>
       </c>
-      <c r="G14" s="37" t="inlineStr">
+      <c r="G14" s="43" t="inlineStr">
         <is>
           <t>01051A</t>
         </is>
       </c>
-      <c r="H14" s="37" t="inlineStr">
+      <c r="H14" s="43" t="inlineStr">
         <is>
           <t>01052A</t>
         </is>
       </c>
-      <c r="I14" s="37" t="inlineStr">
+      <c r="I14" s="43" t="inlineStr">
         <is>
           <t>01071A</t>
         </is>
       </c>
-      <c r="J14" s="37" t="inlineStr">
+      <c r="J14" s="43" t="inlineStr">
         <is>
           <t>01072A</t>
         </is>
       </c>
-      <c r="K14" s="37" t="inlineStr">
+      <c r="K14" s="43" t="inlineStr">
         <is>
           <t>01091A</t>
         </is>
       </c>
-      <c r="L14" s="37" t="inlineStr">
+      <c r="L14" s="43" t="inlineStr">
         <is>
           <t>01092A</t>
         </is>
       </c>
-      <c r="M14" s="37" t="inlineStr">
+      <c r="M14" s="43" t="inlineStr">
         <is>
           <t>01111A</t>
         </is>
       </c>
-      <c r="N14" s="37" t="inlineStr">
+      <c r="N14" s="43" t="inlineStr">
         <is>
           <t>01112A</t>
         </is>
       </c>
-      <c r="O14" s="37" t="inlineStr">
+      <c r="O14" s="43" t="inlineStr">
         <is>
           <t>01131A</t>
         </is>
       </c>
-      <c r="P14" s="37" t="inlineStr">
+      <c r="P14" s="43" t="inlineStr">
         <is>
           <t>01132A</t>
         </is>
       </c>
-      <c r="Q14" s="37" t="inlineStr">
+      <c r="Q14" s="43" t="inlineStr">
         <is>
           <t>01151A</t>
         </is>
       </c>
-      <c r="R14" s="37" t="inlineStr">
+      <c r="R14" s="43" t="inlineStr">
         <is>
           <t>01152A</t>
         </is>
       </c>
-      <c r="S14" s="37" t="inlineStr">
+      <c r="S14" s="43" t="inlineStr">
         <is>
           <t>01171A</t>
         </is>
       </c>
-      <c r="T14" s="37" t="inlineStr">
+      <c r="T14" s="43" t="inlineStr">
         <is>
           <t>01172A</t>
         </is>
       </c>
-      <c r="U14" s="37" t="inlineStr">
+      <c r="U14" s="43" t="inlineStr">
         <is>
           <t>01191A</t>
         </is>
       </c>
-      <c r="V14" s="37" t="inlineStr">
+      <c r="V14" s="43" t="inlineStr">
         <is>
           <t>01192A</t>
         </is>
       </c>
-      <c r="W14" s="37" t="inlineStr">
+      <c r="W14" s="43" t="inlineStr">
         <is>
           <t>01211A</t>
         </is>
       </c>
-      <c r="X14" s="37" t="inlineStr">
+      <c r="X14" s="43" t="inlineStr">
         <is>
           <t>01212A</t>
         </is>
       </c>
-      <c r="Y14" s="37" t="inlineStr">
+      <c r="Y14" s="43" t="inlineStr">
         <is>
           <t>01231A</t>
         </is>
       </c>
-      <c r="Z14" s="37" t="inlineStr">
+      <c r="Z14" s="43" t="inlineStr">
         <is>
           <t>01232A</t>
         </is>
       </c>
-      <c r="AA14" s="37" t="inlineStr">
+      <c r="AA14" s="43" t="inlineStr">
         <is>
           <t>01251A</t>
         </is>
       </c>
-      <c r="AB14" s="37" t="inlineStr">
+      <c r="AB14" s="43" t="inlineStr">
         <is>
           <t>01252A</t>
         </is>
       </c>
-      <c r="AC14" s="37" t="inlineStr">
+      <c r="AC14" s="43" t="inlineStr">
         <is>
           <t>01271A</t>
         </is>
       </c>
-      <c r="AD14" s="37" t="inlineStr">
+      <c r="AD14" s="43" t="inlineStr">
         <is>
           <t>01272A</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="35" customHeight="1" s="19">
-      <c r="A15" s="39" t="n"/>
-      <c r="B15" s="39" t="n"/>
-      <c r="C15" s="39" t="n"/>
-      <c r="D15" s="39" t="n"/>
-      <c r="E15" s="39" t="n"/>
-      <c r="F15" s="39" t="n"/>
-      <c r="G15" s="39" t="n"/>
-      <c r="H15" s="39" t="n"/>
-      <c r="I15" s="39" t="n"/>
-      <c r="J15" s="39" t="n"/>
-      <c r="K15" s="39" t="n"/>
-      <c r="L15" s="39" t="n"/>
-      <c r="M15" s="39" t="n"/>
-      <c r="N15" s="39" t="n"/>
-      <c r="O15" s="39" t="n"/>
-      <c r="P15" s="39" t="n"/>
-      <c r="Q15" s="39" t="n"/>
-      <c r="R15" s="39" t="n"/>
-      <c r="S15" s="39" t="n"/>
-      <c r="T15" s="39" t="n"/>
-      <c r="U15" s="39" t="n"/>
-      <c r="V15" s="39" t="n"/>
-      <c r="W15" s="39" t="n"/>
-      <c r="X15" s="39" t="n"/>
-      <c r="Y15" s="39" t="n"/>
-      <c r="Z15" s="39" t="n"/>
-      <c r="AA15" s="39" t="n"/>
-      <c r="AB15" s="39" t="n"/>
-      <c r="AC15" s="39" t="n"/>
-      <c r="AD15" s="39" t="n"/>
+    <row r="15" ht="35" customHeight="1">
+      <c r="A15" s="52" t="n"/>
+      <c r="B15" s="45" t="n"/>
+      <c r="C15" s="45" t="n"/>
+      <c r="D15" s="45" t="n"/>
+      <c r="E15" s="45" t="n"/>
+      <c r="F15" s="45" t="n"/>
+      <c r="G15" s="45" t="n"/>
+      <c r="H15" s="45" t="n"/>
+      <c r="I15" s="45" t="n"/>
+      <c r="J15" s="45" t="n"/>
+      <c r="K15" s="45" t="n"/>
+      <c r="L15" s="45" t="n"/>
+      <c r="M15" s="45" t="n"/>
+      <c r="N15" s="45" t="n"/>
+      <c r="O15" s="45" t="n"/>
+      <c r="P15" s="45" t="n"/>
+      <c r="Q15" s="45" t="n"/>
+      <c r="R15" s="45" t="n"/>
+      <c r="S15" s="45" t="n"/>
+      <c r="T15" s="45" t="n"/>
+      <c r="U15" s="45" t="n"/>
+      <c r="V15" s="45" t="n"/>
+      <c r="W15" s="45" t="n"/>
+      <c r="X15" s="45" t="n"/>
+      <c r="Y15" s="45" t="n"/>
+      <c r="Z15" s="45" t="n"/>
+      <c r="AA15" s="45" t="n"/>
+      <c r="AB15" s="45" t="n"/>
+      <c r="AC15" s="45" t="n"/>
+      <c r="AD15" s="45" t="n"/>
     </row>
-    <row r="16" ht="25" customHeight="1" s="19">
-      <c r="A16" s="40" t="inlineStr">
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="B16" s="41" t="inlineStr">
+      <c r="B16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="C16" s="40" t="inlineStr">
+      <c r="C16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="E16" s="40" t="inlineStr">
+      <c r="E16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="F16" s="41" t="inlineStr">
+      <c r="F16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="G16" s="40" t="inlineStr">
+      <c r="G16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="H16" s="41" t="inlineStr">
+      <c r="H16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="I16" s="40" t="inlineStr">
+      <c r="I16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="J16" s="41" t="inlineStr">
+      <c r="J16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="K16" s="40" t="inlineStr">
+      <c r="K16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="L16" s="41" t="inlineStr">
+      <c r="L16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="M16" s="40" t="inlineStr">
+      <c r="M16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="N16" s="41" t="inlineStr">
+      <c r="N16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="O16" s="40" t="inlineStr">
+      <c r="O16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="P16" s="41" t="inlineStr">
+      <c r="P16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="Q16" s="40" t="inlineStr">
+      <c r="Q16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="R16" s="41" t="inlineStr">
+      <c r="R16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="S16" s="40" t="inlineStr">
+      <c r="S16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="T16" s="41" t="inlineStr">
+      <c r="T16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="U16" s="40" t="inlineStr">
+      <c r="U16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="V16" s="41" t="inlineStr">
+      <c r="V16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="W16" s="40" t="inlineStr">
+      <c r="W16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="X16" s="41" t="inlineStr">
+      <c r="X16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="Y16" s="40" t="inlineStr">
+      <c r="Y16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="Z16" s="41" t="inlineStr">
+      <c r="Z16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AA16" s="40" t="inlineStr">
+      <c r="AA16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AB16" s="41" t="inlineStr">
+      <c r="AB16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AC16" s="40" t="inlineStr">
+      <c r="AC16" s="46" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AD16" s="41" t="inlineStr">
+      <c r="AD16" s="47" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="inlineStr">
+      <c r="A17" s="41" t="inlineStr">
         <is>
           <t>Bay:</t>
         </is>
       </c>
-      <c r="B17" s="35" t="n"/>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="41" t="n"/>
+      <c r="C17" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="35" t="n">
+      <c r="E17" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="35" t="n">
+      <c r="F17" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="35" t="n">
+      <c r="G17" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="35" t="n">
+      <c r="H17" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="35" t="n">
+      <c r="I17" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="J17" s="35" t="n">
+      <c r="J17" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="K17" s="35" t="n">
+      <c r="K17" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="L17" s="35" t="n">
+      <c r="L17" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="M17" s="35" t="n">
+      <c r="M17" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="N17" s="35" t="n">
+      <c r="N17" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="O17" s="35" t="n">
+      <c r="O17" s="41" t="n">
         <v>13</v>
       </c>
-      <c r="P17" s="35" t="n">
+      <c r="P17" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="Q17" s="35" t="n">
+      <c r="Q17" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="R17" s="35" t="n">
+      <c r="R17" s="41" t="n">
         <v>16</v>
       </c>
-      <c r="S17" s="35" t="n">
+      <c r="S17" s="41" t="n">
         <v>17</v>
       </c>
-      <c r="T17" s="35" t="n">
+      <c r="T17" s="41" t="n">
         <v>18</v>
       </c>
-      <c r="U17" s="35" t="n">
+      <c r="U17" s="41" t="n">
         <v>19</v>
       </c>
-      <c r="V17" s="35" t="n">
+      <c r="V17" s="41" t="n">
         <v>20</v>
       </c>
-      <c r="W17" s="35" t="n">
+      <c r="W17" s="41" t="n">
         <v>21</v>
       </c>
-      <c r="X17" s="35" t="n">
+      <c r="X17" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="Y17" s="35" t="n">
+      <c r="Y17" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="Z17" s="35" t="n">
+      <c r="Z17" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="AA17" s="35" t="n">
+      <c r="AA17" s="41" t="n">
         <v>25</v>
       </c>
-      <c r="AB17" s="35" t="n">
+      <c r="AB17" s="41" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" s="35" t="n">
+      <c r="AC17" s="41" t="n">
         <v>27</v>
       </c>
-      <c r="AD17" s="35" t="n">
+      <c r="AD17" s="41" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="11" customHeight="1" s="19">
-      <c r="A18" s="36" t="inlineStr">
+    <row r="18" ht="11" customHeight="1">
+      <c r="A18" s="42" t="inlineStr">
         <is>
           <t>R
 I
@@ -2295,1757 +2369,1894 @@
 E</t>
         </is>
       </c>
-      <c r="B18" s="37" t="inlineStr">
+      <c r="B18" s="43" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="C18" s="37" t="inlineStr">
+      <c r="C18" s="43" t="inlineStr">
         <is>
           <t>01282G</t>
         </is>
       </c>
-      <c r="D18" s="37" t="inlineStr">
+      <c r="D18" s="43" t="inlineStr">
         <is>
           <t>01281G</t>
         </is>
       </c>
-      <c r="E18" s="37" t="inlineStr">
+      <c r="E18" s="43" t="inlineStr">
         <is>
           <t>01262G</t>
         </is>
       </c>
-      <c r="F18" s="37" t="inlineStr">
+      <c r="F18" s="43" t="inlineStr">
         <is>
           <t>01261G</t>
         </is>
       </c>
-      <c r="G18" s="37" t="inlineStr">
+      <c r="G18" s="43" t="inlineStr">
         <is>
           <t>01242G</t>
         </is>
       </c>
-      <c r="H18" s="37" t="inlineStr">
+      <c r="H18" s="43" t="inlineStr">
         <is>
           <t>01241G</t>
         </is>
       </c>
-      <c r="I18" s="37" t="inlineStr">
+      <c r="I18" s="43" t="inlineStr">
         <is>
           <t>01222G</t>
         </is>
       </c>
-      <c r="J18" s="37" t="inlineStr">
+      <c r="J18" s="43" t="inlineStr">
         <is>
           <t>01221G</t>
         </is>
       </c>
-      <c r="K18" s="37" t="inlineStr">
+      <c r="K18" s="43" t="inlineStr">
         <is>
           <t>01202G</t>
         </is>
       </c>
-      <c r="L18" s="37" t="inlineStr">
+      <c r="L18" s="43" t="inlineStr">
         <is>
           <t>01201G</t>
         </is>
       </c>
-      <c r="M18" s="37" t="inlineStr">
+      <c r="M18" s="43" t="inlineStr">
         <is>
           <t>01182G</t>
         </is>
       </c>
-      <c r="N18" s="37" t="inlineStr">
+      <c r="N18" s="43" t="inlineStr">
         <is>
           <t>01181G</t>
         </is>
       </c>
-      <c r="O18" s="37" t="inlineStr">
+      <c r="O18" s="43" t="inlineStr">
         <is>
           <t>01162G</t>
         </is>
       </c>
-      <c r="P18" s="37" t="inlineStr">
+      <c r="P18" s="43" t="inlineStr">
         <is>
           <t>01161G</t>
         </is>
       </c>
-      <c r="Q18" s="37" t="inlineStr">
+      <c r="Q18" s="43" t="inlineStr">
         <is>
           <t>01142G</t>
         </is>
       </c>
-      <c r="R18" s="37" t="inlineStr">
+      <c r="R18" s="43" t="inlineStr">
         <is>
           <t>01141G</t>
         </is>
       </c>
-      <c r="S18" s="37" t="inlineStr">
+      <c r="S18" s="43" t="inlineStr">
         <is>
           <t>01122G</t>
         </is>
       </c>
-      <c r="T18" s="37" t="inlineStr">
+      <c r="T18" s="43" t="inlineStr">
         <is>
           <t>01121G</t>
         </is>
       </c>
-      <c r="U18" s="37" t="inlineStr">
+      <c r="U18" s="43" t="inlineStr">
         <is>
           <t>01102G</t>
         </is>
       </c>
-      <c r="V18" s="37" t="inlineStr">
+      <c r="V18" s="43" t="inlineStr">
         <is>
           <t>01101G</t>
         </is>
       </c>
-      <c r="W18" s="37" t="inlineStr">
+      <c r="W18" s="43" t="inlineStr">
         <is>
           <t>01082G</t>
         </is>
       </c>
-      <c r="X18" s="37" t="inlineStr">
+      <c r="X18" s="43" t="inlineStr">
         <is>
           <t>01081G</t>
         </is>
       </c>
-      <c r="Y18" s="37" t="inlineStr">
+      <c r="Y18" s="43" t="inlineStr">
         <is>
           <t>01062G</t>
         </is>
       </c>
-      <c r="Z18" s="37" t="inlineStr">
+      <c r="Z18" s="43" t="inlineStr">
         <is>
           <t>01061G</t>
         </is>
       </c>
-      <c r="AA18" s="37" t="inlineStr">
+      <c r="AA18" s="43" t="inlineStr">
         <is>
           <t>01042G</t>
         </is>
       </c>
-      <c r="AB18" s="37" t="inlineStr">
+      <c r="AB18" s="43" t="inlineStr">
         <is>
           <t>01041G</t>
         </is>
       </c>
-      <c r="AC18" s="37" t="inlineStr">
+      <c r="AC18" s="43" t="inlineStr">
         <is>
           <t>01022G</t>
         </is>
       </c>
-      <c r="AD18" s="37" t="inlineStr">
+      <c r="AD18" s="43" t="inlineStr">
         <is>
           <t>01021G</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="35" customHeight="1" s="19">
-      <c r="A19" s="45" t="n"/>
-      <c r="B19" s="39" t="n"/>
-      <c r="C19" s="39" t="n"/>
-      <c r="D19" s="39" t="n"/>
-      <c r="E19" s="39" t="n"/>
-      <c r="F19" s="39" t="n"/>
-      <c r="G19" s="39" t="n"/>
-      <c r="H19" s="39" t="n"/>
-      <c r="I19" s="39" t="n"/>
-      <c r="J19" s="39" t="n"/>
-      <c r="K19" s="39" t="n"/>
-      <c r="L19" s="39" t="n"/>
-      <c r="M19" s="39" t="n"/>
-      <c r="N19" s="39" t="n"/>
-      <c r="O19" s="39" t="n"/>
-      <c r="P19" s="39" t="n"/>
-      <c r="Q19" s="39" t="n"/>
-      <c r="R19" s="39" t="n"/>
-      <c r="S19" s="39" t="n"/>
-      <c r="T19" s="39" t="n"/>
-      <c r="U19" s="39" t="n"/>
-      <c r="V19" s="39" t="n"/>
-      <c r="W19" s="39" t="n"/>
-      <c r="X19" s="39" t="n"/>
-      <c r="Y19" s="39" t="n"/>
-      <c r="Z19" s="39" t="n"/>
-      <c r="AA19" s="39" t="n"/>
-      <c r="AB19" s="39" t="inlineStr">
+    <row r="19" ht="35" customHeight="1">
+      <c r="A19" s="51" t="n"/>
+      <c r="B19" s="45" t="n"/>
+      <c r="C19" s="45" t="n"/>
+      <c r="D19" s="45" t="n"/>
+      <c r="E19" s="45" t="n"/>
+      <c r="F19" s="45" t="n"/>
+      <c r="G19" s="45" t="n"/>
+      <c r="H19" s="45" t="n"/>
+      <c r="I19" s="45" t="n"/>
+      <c r="J19" s="45" t="n"/>
+      <c r="K19" s="45" t="n"/>
+      <c r="L19" s="45" t="n"/>
+      <c r="M19" s="45" t="n"/>
+      <c r="N19" s="45" t="n"/>
+      <c r="O19" s="45" t="n"/>
+      <c r="P19" s="45" t="n"/>
+      <c r="Q19" s="45" t="n"/>
+      <c r="R19" s="45" t="n"/>
+      <c r="S19" s="45" t="n"/>
+      <c r="T19" s="45" t="inlineStr">
+        <is>
+          <t>B2000305-</t>
+        </is>
+      </c>
+      <c r="U19" s="45" t="inlineStr">
+        <is>
+          <t>b1000287-</t>
+        </is>
+      </c>
+      <c r="V19" s="45" t="inlineStr">
+        <is>
+          <t>B2011065-</t>
+        </is>
+      </c>
+      <c r="W19" s="45" t="n"/>
+      <c r="X19" s="45" t="n"/>
+      <c r="Y19" s="45" t="inlineStr">
+        <is>
+          <t>b1007311-</t>
+        </is>
+      </c>
+      <c r="Z19" s="45" t="n"/>
+      <c r="AA19" s="45" t="n"/>
+      <c r="AB19" s="45" t="inlineStr">
         <is>
           <t>B1007919-</t>
         </is>
       </c>
-      <c r="AC19" s="39" t="n"/>
-      <c r="AD19" s="39" t="n"/>
+      <c r="AC19" s="45" t="n"/>
+      <c r="AD19" s="45" t="inlineStr">
+        <is>
+          <t>b2000660-</t>
+        </is>
+      </c>
     </row>
-    <row r="20" ht="11" customHeight="1" s="19">
-      <c r="A20" s="45" t="n"/>
-      <c r="B20" s="37" t="inlineStr">
+    <row r="20" ht="11" customHeight="1">
+      <c r="A20" s="51" t="n"/>
+      <c r="B20" s="43" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C20" s="37" t="inlineStr">
+      <c r="C20" s="43" t="inlineStr">
         <is>
           <t>01282F</t>
         </is>
       </c>
-      <c r="D20" s="37" t="inlineStr">
+      <c r="D20" s="43" t="inlineStr">
         <is>
           <t>01281F</t>
         </is>
       </c>
-      <c r="E20" s="37" t="inlineStr">
+      <c r="E20" s="43" t="inlineStr">
         <is>
           <t>01262F</t>
         </is>
       </c>
-      <c r="F20" s="37" t="inlineStr">
+      <c r="F20" s="43" t="inlineStr">
         <is>
           <t>01261F</t>
         </is>
       </c>
-      <c r="G20" s="37" t="inlineStr">
+      <c r="G20" s="43" t="inlineStr">
         <is>
           <t>01242F</t>
         </is>
       </c>
-      <c r="H20" s="37" t="inlineStr">
+      <c r="H20" s="43" t="inlineStr">
         <is>
           <t>01241F</t>
         </is>
       </c>
-      <c r="I20" s="37" t="inlineStr">
+      <c r="I20" s="43" t="inlineStr">
         <is>
           <t>01222F</t>
         </is>
       </c>
-      <c r="J20" s="37" t="inlineStr">
+      <c r="J20" s="43" t="inlineStr">
         <is>
           <t>01221F</t>
         </is>
       </c>
-      <c r="K20" s="37" t="inlineStr">
+      <c r="K20" s="43" t="inlineStr">
         <is>
           <t>01202F</t>
         </is>
       </c>
-      <c r="L20" s="37" t="inlineStr">
+      <c r="L20" s="43" t="inlineStr">
         <is>
           <t>01201F</t>
         </is>
       </c>
-      <c r="M20" s="37" t="inlineStr">
+      <c r="M20" s="43" t="inlineStr">
         <is>
           <t>01182F</t>
         </is>
       </c>
-      <c r="N20" s="37" t="inlineStr">
+      <c r="N20" s="43" t="inlineStr">
         <is>
           <t>01181F</t>
         </is>
       </c>
-      <c r="O20" s="37" t="inlineStr">
+      <c r="O20" s="43" t="inlineStr">
         <is>
           <t>01162F</t>
         </is>
       </c>
-      <c r="P20" s="37" t="inlineStr">
+      <c r="P20" s="43" t="inlineStr">
         <is>
           <t>01161F</t>
         </is>
       </c>
-      <c r="Q20" s="37" t="inlineStr">
+      <c r="Q20" s="43" t="inlineStr">
         <is>
           <t>01142F</t>
         </is>
       </c>
-      <c r="R20" s="37" t="inlineStr">
+      <c r="R20" s="43" t="inlineStr">
         <is>
           <t>01141F</t>
         </is>
       </c>
-      <c r="S20" s="37" t="inlineStr">
+      <c r="S20" s="43" t="inlineStr">
         <is>
           <t>01122F</t>
         </is>
       </c>
-      <c r="T20" s="37" t="inlineStr">
+      <c r="T20" s="43" t="inlineStr">
         <is>
           <t>01121F</t>
         </is>
       </c>
-      <c r="U20" s="37" t="inlineStr">
+      <c r="U20" s="43" t="inlineStr">
         <is>
           <t>01102F</t>
         </is>
       </c>
-      <c r="V20" s="37" t="inlineStr">
+      <c r="V20" s="43" t="inlineStr">
         <is>
           <t>01101F</t>
         </is>
       </c>
-      <c r="W20" s="37" t="inlineStr">
+      <c r="W20" s="43" t="inlineStr">
         <is>
           <t>01082F</t>
         </is>
       </c>
-      <c r="X20" s="37" t="inlineStr">
+      <c r="X20" s="43" t="inlineStr">
         <is>
           <t>01081F</t>
         </is>
       </c>
-      <c r="Y20" s="37" t="inlineStr">
+      <c r="Y20" s="43" t="inlineStr">
         <is>
           <t>01062F</t>
         </is>
       </c>
-      <c r="Z20" s="37" t="inlineStr">
+      <c r="Z20" s="43" t="inlineStr">
         <is>
           <t>01061F</t>
         </is>
       </c>
-      <c r="AA20" s="37" t="inlineStr">
+      <c r="AA20" s="43" t="inlineStr">
         <is>
           <t>01042F</t>
         </is>
       </c>
-      <c r="AB20" s="37" t="inlineStr">
+      <c r="AB20" s="43" t="inlineStr">
         <is>
           <t>01041F</t>
         </is>
       </c>
-      <c r="AC20" s="37" t="inlineStr">
+      <c r="AC20" s="43" t="inlineStr">
         <is>
           <t>01022F</t>
         </is>
       </c>
-      <c r="AD20" s="37" t="inlineStr">
+      <c r="AD20" s="43" t="inlineStr">
         <is>
           <t>01021F</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="35" customHeight="1" s="19">
-      <c r="A21" s="45" t="n"/>
-      <c r="B21" s="39" t="n"/>
-      <c r="C21" s="39" t="inlineStr">
+    <row r="21" ht="35" customHeight="1">
+      <c r="A21" s="51" t="n"/>
+      <c r="B21" s="45" t="n"/>
+      <c r="C21" s="45" t="inlineStr">
         <is>
           <t>B2010530-</t>
         </is>
       </c>
-      <c r="D21" s="39" t="n"/>
-      <c r="E21" s="39" t="inlineStr">
+      <c r="D21" s="45" t="inlineStr">
+        <is>
+          <t>B2010464-</t>
+        </is>
+      </c>
+      <c r="E21" s="45" t="inlineStr">
         <is>
           <t>b1000323-</t>
         </is>
       </c>
-      <c r="F21" s="39" t="inlineStr">
+      <c r="F21" s="45" t="inlineStr">
         <is>
           <t>b1000309-</t>
         </is>
       </c>
-      <c r="G21" s="39" t="inlineStr">
+      <c r="G21" s="45" t="inlineStr">
         <is>
           <t>B2011272-</t>
         </is>
       </c>
-      <c r="H21" s="39" t="inlineStr">
+      <c r="H21" s="45" t="inlineStr">
         <is>
           <t>B1006102-</t>
         </is>
       </c>
-      <c r="I21" s="39" t="inlineStr">
+      <c r="I21" s="45" t="inlineStr">
         <is>
           <t>B2010532-</t>
         </is>
       </c>
-      <c r="J21" s="39" t="inlineStr">
+      <c r="J21" s="45" t="inlineStr">
         <is>
           <t>B2010512-</t>
         </is>
       </c>
-      <c r="K21" s="39" t="inlineStr">
-        <is>
-          <t>B1006735-</t>
-        </is>
-      </c>
-      <c r="L21" s="39" t="n"/>
-      <c r="M21" s="39" t="inlineStr">
+      <c r="K21" s="45" t="inlineStr">
+        <is>
+          <t>B2010465-</t>
+        </is>
+      </c>
+      <c r="L21" s="45" t="n"/>
+      <c r="M21" s="45" t="inlineStr">
         <is>
           <t>m1017659-</t>
         </is>
       </c>
-      <c r="N21" s="39" t="inlineStr">
+      <c r="N21" s="45" t="inlineStr">
         <is>
           <t>B1000313-</t>
         </is>
       </c>
-      <c r="O21" s="39" t="inlineStr">
-        <is>
-          <t>B1006176-</t>
-        </is>
-      </c>
-      <c r="P21" s="39" t="n"/>
-      <c r="Q21" s="39" t="n"/>
-      <c r="R21" s="42" t="inlineStr">
-        <is>
-          <t>B2010458-
-B2011122-</t>
-        </is>
-      </c>
-      <c r="S21" s="39" t="inlineStr">
-        <is>
-          <t>B2010156-</t>
-        </is>
-      </c>
-      <c r="T21" s="39" t="inlineStr">
+      <c r="O21" s="45" t="n"/>
+      <c r="P21" s="45" t="inlineStr">
+        <is>
+          <t>b2011489-</t>
+        </is>
+      </c>
+      <c r="Q21" s="45" t="inlineStr">
+        <is>
+          <t>B2010458-</t>
+        </is>
+      </c>
+      <c r="R21" s="45" t="n"/>
+      <c r="S21" s="45" t="inlineStr">
+        <is>
+          <t>B1008877-</t>
+        </is>
+      </c>
+      <c r="T21" s="45" t="inlineStr">
         <is>
           <t>B1004997-</t>
         </is>
       </c>
-      <c r="U21" s="39" t="inlineStr">
+      <c r="U21" s="45" t="inlineStr">
         <is>
           <t>B2011290-</t>
         </is>
       </c>
-      <c r="V21" s="39" t="n"/>
-      <c r="W21" s="39" t="inlineStr">
+      <c r="V21" s="45" t="inlineStr">
+        <is>
+          <t>P1209364-</t>
+        </is>
+      </c>
+      <c r="W21" s="45" t="inlineStr">
         <is>
           <t>p1234159-</t>
         </is>
       </c>
-      <c r="X21" s="39" t="inlineStr">
+      <c r="X21" s="45" t="inlineStr">
         <is>
           <t>B2011317-</t>
         </is>
       </c>
-      <c r="Y21" s="39" t="inlineStr">
-        <is>
-          <t>B2011062-</t>
-        </is>
-      </c>
-      <c r="Z21" s="39" t="inlineStr">
+      <c r="Y21" s="45" t="inlineStr">
+        <is>
+          <t>B2011491-</t>
+        </is>
+      </c>
+      <c r="Z21" s="45" t="inlineStr">
         <is>
           <t>B2000859-</t>
         </is>
       </c>
-      <c r="AA21" s="39" t="n"/>
-      <c r="AB21" s="39" t="inlineStr">
+      <c r="AA21" s="45" t="inlineStr">
+        <is>
+          <t>B1006183-</t>
+        </is>
+      </c>
+      <c r="AB21" s="45" t="inlineStr">
         <is>
           <t>B2011283-</t>
         </is>
       </c>
-      <c r="AC21" s="42" t="inlineStr">
+      <c r="AC21" s="48" t="inlineStr">
         <is>
           <t>B2011308-
 P1229403-</t>
         </is>
       </c>
-      <c r="AD21" s="39" t="inlineStr">
+      <c r="AD21" s="45" t="inlineStr">
         <is>
           <t>B1008952-</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="11" customHeight="1" s="19">
-      <c r="A22" s="45" t="n"/>
-      <c r="B22" s="37" t="inlineStr">
+    <row r="22" ht="11" customHeight="1">
+      <c r="A22" s="51" t="n"/>
+      <c r="B22" s="43" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C22" s="37" t="inlineStr">
+      <c r="C22" s="43" t="inlineStr">
         <is>
           <t>01282E</t>
         </is>
       </c>
-      <c r="D22" s="37" t="inlineStr">
+      <c r="D22" s="43" t="inlineStr">
         <is>
           <t>01281E</t>
         </is>
       </c>
-      <c r="E22" s="37" t="inlineStr">
+      <c r="E22" s="43" t="inlineStr">
         <is>
           <t>01262E</t>
         </is>
       </c>
-      <c r="F22" s="37" t="inlineStr">
+      <c r="F22" s="43" t="inlineStr">
         <is>
           <t>01261E</t>
         </is>
       </c>
-      <c r="G22" s="37" t="inlineStr">
+      <c r="G22" s="43" t="inlineStr">
         <is>
           <t>01242E</t>
         </is>
       </c>
-      <c r="H22" s="37" t="inlineStr">
+      <c r="H22" s="43" t="inlineStr">
         <is>
           <t>01241E</t>
         </is>
       </c>
-      <c r="I22" s="37" t="inlineStr">
+      <c r="I22" s="43" t="inlineStr">
         <is>
           <t>01222E</t>
         </is>
       </c>
-      <c r="J22" s="37" t="inlineStr">
+      <c r="J22" s="43" t="inlineStr">
         <is>
           <t>01221E</t>
         </is>
       </c>
-      <c r="K22" s="37" t="inlineStr">
+      <c r="K22" s="43" t="inlineStr">
         <is>
           <t>01202E</t>
         </is>
       </c>
-      <c r="L22" s="37" t="inlineStr">
+      <c r="L22" s="43" t="inlineStr">
         <is>
           <t>01201E</t>
         </is>
       </c>
-      <c r="M22" s="37" t="inlineStr">
+      <c r="M22" s="43" t="inlineStr">
         <is>
           <t>01182E</t>
         </is>
       </c>
-      <c r="N22" s="37" t="inlineStr">
+      <c r="N22" s="43" t="inlineStr">
         <is>
           <t>01181E</t>
         </is>
       </c>
-      <c r="O22" s="37" t="inlineStr">
+      <c r="O22" s="43" t="inlineStr">
         <is>
           <t>01162E</t>
         </is>
       </c>
-      <c r="P22" s="37" t="inlineStr">
+      <c r="P22" s="43" t="inlineStr">
         <is>
           <t>01161E</t>
         </is>
       </c>
-      <c r="Q22" s="37" t="inlineStr">
+      <c r="Q22" s="43" t="inlineStr">
         <is>
           <t>01142E</t>
         </is>
       </c>
-      <c r="R22" s="37" t="inlineStr">
+      <c r="R22" s="43" t="inlineStr">
         <is>
           <t>01141E</t>
         </is>
       </c>
-      <c r="S22" s="37" t="inlineStr">
+      <c r="S22" s="43" t="inlineStr">
         <is>
           <t>01122E</t>
         </is>
       </c>
-      <c r="T22" s="37" t="inlineStr">
+      <c r="T22" s="43" t="inlineStr">
         <is>
           <t>01121E</t>
         </is>
       </c>
-      <c r="U22" s="37" t="inlineStr">
+      <c r="U22" s="43" t="inlineStr">
         <is>
           <t>01102E</t>
         </is>
       </c>
-      <c r="V22" s="37" t="inlineStr">
+      <c r="V22" s="43" t="inlineStr">
         <is>
           <t>01101E</t>
         </is>
       </c>
-      <c r="W22" s="37" t="inlineStr">
+      <c r="W22" s="43" t="inlineStr">
         <is>
           <t>01082E</t>
         </is>
       </c>
-      <c r="X22" s="37" t="inlineStr">
+      <c r="X22" s="43" t="inlineStr">
         <is>
           <t>01081E</t>
         </is>
       </c>
-      <c r="Y22" s="37" t="inlineStr">
+      <c r="Y22" s="43" t="inlineStr">
         <is>
           <t>01062E</t>
         </is>
       </c>
-      <c r="Z22" s="37" t="inlineStr">
+      <c r="Z22" s="43" t="inlineStr">
         <is>
           <t>01061E</t>
         </is>
       </c>
-      <c r="AA22" s="37" t="inlineStr">
+      <c r="AA22" s="43" t="inlineStr">
         <is>
           <t>01042E</t>
         </is>
       </c>
-      <c r="AB22" s="37" t="inlineStr">
+      <c r="AB22" s="43" t="inlineStr">
         <is>
           <t>01041E</t>
         </is>
       </c>
-      <c r="AC22" s="37" t="inlineStr">
+      <c r="AC22" s="43" t="inlineStr">
         <is>
           <t>01022E</t>
         </is>
       </c>
-      <c r="AD22" s="37" t="inlineStr">
+      <c r="AD22" s="43" t="inlineStr">
         <is>
           <t>01021E</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="35" customHeight="1" s="19">
-      <c r="A23" s="45" t="n"/>
-      <c r="B23" s="39" t="n"/>
-      <c r="C23" s="39" t="n"/>
-      <c r="D23" s="39" t="inlineStr">
+    <row r="23" ht="35" customHeight="1">
+      <c r="A23" s="51" t="n"/>
+      <c r="B23" s="45" t="n"/>
+      <c r="C23" s="45" t="inlineStr">
+        <is>
+          <t>B1008831-</t>
+        </is>
+      </c>
+      <c r="D23" s="45" t="inlineStr">
         <is>
           <t>t2001237-</t>
         </is>
       </c>
-      <c r="E23" s="39" t="n"/>
-      <c r="F23" s="39" t="inlineStr">
+      <c r="E23" s="45" t="inlineStr">
+        <is>
+          <t>B2010925-</t>
+        </is>
+      </c>
+      <c r="F23" s="45" t="inlineStr">
         <is>
           <t>B2010514-</t>
         </is>
       </c>
-      <c r="G23" s="39" t="inlineStr">
+      <c r="G23" s="45" t="inlineStr">
         <is>
           <t>b1004719-</t>
         </is>
       </c>
-      <c r="H23" s="39" t="n"/>
-      <c r="I23" s="39" t="n"/>
-      <c r="J23" s="39" t="inlineStr">
+      <c r="H23" s="45" t="inlineStr">
+        <is>
+          <t>b2009951-</t>
+        </is>
+      </c>
+      <c r="I23" s="45" t="inlineStr">
+        <is>
+          <t>P1227414-</t>
+        </is>
+      </c>
+      <c r="J23" s="45" t="inlineStr">
         <is>
           <t>M1012367-</t>
         </is>
       </c>
-      <c r="K23" s="39" t="inlineStr">
+      <c r="K23" s="45" t="inlineStr">
         <is>
           <t>B2010521-</t>
         </is>
       </c>
-      <c r="L23" s="39" t="inlineStr">
-        <is>
-          <t>b1007931-</t>
-        </is>
-      </c>
-      <c r="M23" s="39" t="inlineStr">
+      <c r="L23" s="45" t="inlineStr">
+        <is>
+          <t>B2012313-</t>
+        </is>
+      </c>
+      <c r="M23" s="45" t="inlineStr">
         <is>
           <t>b2010463-</t>
         </is>
       </c>
-      <c r="N23" s="39" t="inlineStr">
+      <c r="N23" s="45" t="inlineStr">
         <is>
           <t>b2000081-</t>
         </is>
       </c>
-      <c r="O23" s="39" t="n"/>
-      <c r="P23" s="39" t="inlineStr">
-        <is>
-          <t>A1002450-</t>
-        </is>
-      </c>
-      <c r="Q23" s="39" t="inlineStr">
+      <c r="O23" s="45" t="inlineStr">
+        <is>
+          <t>B2010111-</t>
+        </is>
+      </c>
+      <c r="P23" s="45" t="inlineStr">
+        <is>
+          <t>B2000018-</t>
+        </is>
+      </c>
+      <c r="Q23" s="45" t="inlineStr">
+        <is>
+          <t>B2011500-</t>
+        </is>
+      </c>
+      <c r="R23" s="45" t="inlineStr">
         <is>
           <t>B2000933-</t>
         </is>
       </c>
-      <c r="R23" s="39" t="n"/>
-      <c r="S23" s="39" t="n"/>
-      <c r="T23" s="39" t="n"/>
-      <c r="U23" s="39" t="inlineStr">
+      <c r="S23" s="45" t="inlineStr">
+        <is>
+          <t>B1009009-</t>
+        </is>
+      </c>
+      <c r="T23" s="45" t="inlineStr">
+        <is>
+          <t>X1000258-</t>
+        </is>
+      </c>
+      <c r="U23" s="45" t="inlineStr">
         <is>
           <t>B2011297-</t>
         </is>
       </c>
-      <c r="V23" s="39" t="inlineStr">
+      <c r="V23" s="45" t="inlineStr">
         <is>
           <t>B2010874-</t>
         </is>
       </c>
-      <c r="W23" s="39" t="inlineStr">
+      <c r="W23" s="45" t="inlineStr">
         <is>
           <t>B1006288-</t>
         </is>
       </c>
-      <c r="X23" s="39" t="inlineStr">
-        <is>
-          <t>B2000448-</t>
-        </is>
-      </c>
-      <c r="Y23" s="39" t="inlineStr">
+      <c r="X23" s="45" t="inlineStr">
+        <is>
+          <t>B2000465-</t>
+        </is>
+      </c>
+      <c r="Y23" s="45" t="inlineStr">
         <is>
           <t>B1005034-</t>
         </is>
       </c>
-      <c r="Z23" s="39" t="inlineStr">
+      <c r="Z23" s="45" t="inlineStr">
         <is>
           <t>B2011292-</t>
         </is>
       </c>
-      <c r="AA23" s="39" t="inlineStr">
-        <is>
-          <t>B2000455-</t>
-        </is>
-      </c>
-      <c r="AB23" s="39" t="inlineStr">
+      <c r="AA23" s="45" t="inlineStr">
+        <is>
+          <t>B2011496-</t>
+        </is>
+      </c>
+      <c r="AB23" s="45" t="inlineStr">
         <is>
           <t>B2011293-</t>
         </is>
       </c>
-      <c r="AC23" s="39" t="inlineStr">
+      <c r="AC23" s="45" t="inlineStr">
         <is>
           <t>t1000756-</t>
         </is>
       </c>
-      <c r="AD23" s="39" t="inlineStr">
+      <c r="AD23" s="45" t="inlineStr">
         <is>
           <t>B1000063-</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="1" s="19">
-      <c r="A24" s="45" t="n"/>
-      <c r="B24" s="37" t="inlineStr">
+    <row r="24" ht="11" customHeight="1">
+      <c r="A24" s="51" t="n"/>
+      <c r="B24" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C24" s="37" t="inlineStr">
+      <c r="C24" s="43" t="inlineStr">
         <is>
           <t>01282D</t>
         </is>
       </c>
-      <c r="D24" s="37" t="inlineStr">
+      <c r="D24" s="43" t="inlineStr">
         <is>
           <t>01281D</t>
         </is>
       </c>
-      <c r="E24" s="37" t="inlineStr">
+      <c r="E24" s="43" t="inlineStr">
         <is>
           <t>01262D</t>
         </is>
       </c>
-      <c r="F24" s="37" t="inlineStr">
+      <c r="F24" s="43" t="inlineStr">
         <is>
           <t>01261D</t>
         </is>
       </c>
-      <c r="G24" s="37" t="inlineStr">
+      <c r="G24" s="43" t="inlineStr">
         <is>
           <t>01242D</t>
         </is>
       </c>
-      <c r="H24" s="37" t="inlineStr">
+      <c r="H24" s="43" t="inlineStr">
         <is>
           <t>01241D</t>
         </is>
       </c>
-      <c r="I24" s="37" t="inlineStr">
+      <c r="I24" s="43" t="inlineStr">
         <is>
           <t>01222D</t>
         </is>
       </c>
-      <c r="J24" s="37" t="inlineStr">
+      <c r="J24" s="43" t="inlineStr">
         <is>
           <t>01221D</t>
         </is>
       </c>
-      <c r="K24" s="37" t="inlineStr">
+      <c r="K24" s="43" t="inlineStr">
         <is>
           <t>01202D</t>
         </is>
       </c>
-      <c r="L24" s="37" t="inlineStr">
+      <c r="L24" s="43" t="inlineStr">
         <is>
           <t>01201D</t>
         </is>
       </c>
-      <c r="M24" s="37" t="inlineStr">
+      <c r="M24" s="43" t="inlineStr">
         <is>
           <t>01182D</t>
         </is>
       </c>
-      <c r="N24" s="37" t="inlineStr">
+      <c r="N24" s="43" t="inlineStr">
         <is>
           <t>01181D</t>
         </is>
       </c>
-      <c r="O24" s="37" t="inlineStr">
+      <c r="O24" s="43" t="inlineStr">
         <is>
           <t>01162D</t>
         </is>
       </c>
-      <c r="P24" s="37" t="inlineStr">
+      <c r="P24" s="43" t="inlineStr">
         <is>
           <t>01161D</t>
         </is>
       </c>
-      <c r="Q24" s="37" t="inlineStr">
+      <c r="Q24" s="43" t="inlineStr">
         <is>
           <t>01142D</t>
         </is>
       </c>
-      <c r="R24" s="37" t="inlineStr">
+      <c r="R24" s="43" t="inlineStr">
         <is>
           <t>01141D</t>
         </is>
       </c>
-      <c r="S24" s="37" t="inlineStr">
+      <c r="S24" s="43" t="inlineStr">
         <is>
           <t>01122D</t>
         </is>
       </c>
-      <c r="T24" s="37" t="inlineStr">
+      <c r="T24" s="43" t="inlineStr">
         <is>
           <t>01121D</t>
         </is>
       </c>
-      <c r="U24" s="37" t="inlineStr">
+      <c r="U24" s="43" t="inlineStr">
         <is>
           <t>01102D</t>
         </is>
       </c>
-      <c r="V24" s="37" t="inlineStr">
+      <c r="V24" s="43" t="inlineStr">
         <is>
           <t>01101D</t>
         </is>
       </c>
-      <c r="W24" s="37" t="inlineStr">
+      <c r="W24" s="43" t="inlineStr">
         <is>
           <t>01082D</t>
         </is>
       </c>
-      <c r="X24" s="37" t="inlineStr">
+      <c r="X24" s="43" t="inlineStr">
         <is>
           <t>01081D</t>
         </is>
       </c>
-      <c r="Y24" s="37" t="inlineStr">
+      <c r="Y24" s="43" t="inlineStr">
         <is>
           <t>01062D</t>
         </is>
       </c>
-      <c r="Z24" s="37" t="inlineStr">
+      <c r="Z24" s="43" t="inlineStr">
         <is>
           <t>01061D</t>
         </is>
       </c>
-      <c r="AA24" s="37" t="inlineStr">
+      <c r="AA24" s="43" t="inlineStr">
         <is>
           <t>01042D</t>
         </is>
       </c>
-      <c r="AB24" s="37" t="inlineStr">
+      <c r="AB24" s="43" t="inlineStr">
         <is>
           <t>01041D</t>
         </is>
       </c>
-      <c r="AC24" s="37" t="inlineStr">
+      <c r="AC24" s="43" t="inlineStr">
         <is>
           <t>01022D</t>
         </is>
       </c>
-      <c r="AD24" s="37" t="inlineStr">
+      <c r="AD24" s="43" t="inlineStr">
         <is>
           <t>01021D</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="35" customHeight="1" s="19">
-      <c r="A25" s="45" t="n"/>
-      <c r="B25" s="39" t="n"/>
-      <c r="C25" s="39" t="inlineStr">
+    <row r="25" ht="35" customHeight="1">
+      <c r="A25" s="51" t="n"/>
+      <c r="B25" s="45" t="n"/>
+      <c r="C25" s="45" t="inlineStr">
         <is>
           <t>T2000320-</t>
         </is>
       </c>
-      <c r="D25" s="39" t="inlineStr">
+      <c r="D25" s="45" t="inlineStr">
         <is>
           <t>t2001172-</t>
         </is>
       </c>
-      <c r="E25" s="39" t="inlineStr">
+      <c r="E25" s="45" t="inlineStr">
         <is>
           <t>B1006724-</t>
         </is>
       </c>
-      <c r="F25" s="39" t="inlineStr">
+      <c r="F25" s="45" t="inlineStr">
         <is>
           <t>t2001262-</t>
         </is>
       </c>
-      <c r="G25" s="39" t="inlineStr">
+      <c r="G25" s="45" t="inlineStr">
         <is>
           <t>M1013183-</t>
         </is>
       </c>
-      <c r="H25" s="39" t="inlineStr">
+      <c r="H25" s="45" t="inlineStr">
         <is>
           <t>B2010631-</t>
         </is>
       </c>
-      <c r="I25" s="39" t="n"/>
-      <c r="J25" s="39" t="inlineStr">
+      <c r="I25" s="45" t="inlineStr">
+        <is>
+          <t>T2003054-</t>
+        </is>
+      </c>
+      <c r="J25" s="45" t="inlineStr">
         <is>
           <t>B2010529-</t>
         </is>
       </c>
-      <c r="K25" s="39" t="inlineStr">
+      <c r="K25" s="45" t="inlineStr">
         <is>
           <t>M1016841-</t>
         </is>
       </c>
-      <c r="L25" s="39" t="inlineStr">
-        <is>
-          <t>b1007290-</t>
-        </is>
-      </c>
-      <c r="M25" s="39" t="inlineStr">
+      <c r="L25" s="45" t="inlineStr">
+        <is>
+          <t>B1007772-</t>
+        </is>
+      </c>
+      <c r="M25" s="45" t="inlineStr">
         <is>
           <t>B2010466-</t>
         </is>
       </c>
-      <c r="N25" s="39" t="n"/>
-      <c r="O25" s="39" t="inlineStr">
+      <c r="N25" s="45" t="n"/>
+      <c r="O25" s="45" t="inlineStr">
         <is>
           <t>B2000474-</t>
         </is>
       </c>
-      <c r="P25" s="39" t="inlineStr">
+      <c r="P25" s="45" t="inlineStr">
         <is>
           <t>B2010884-</t>
         </is>
       </c>
-      <c r="Q25" s="39" t="inlineStr">
-        <is>
-          <t>B1006751-</t>
-        </is>
-      </c>
-      <c r="R25" s="39" t="n"/>
-      <c r="S25" s="39" t="inlineStr">
+      <c r="Q25" s="45" t="inlineStr">
+        <is>
+          <t>B2000412-</t>
+        </is>
+      </c>
+      <c r="R25" s="45" t="inlineStr">
+        <is>
+          <t>B1006465-</t>
+        </is>
+      </c>
+      <c r="S25" s="45" t="inlineStr">
+        <is>
+          <t>X1000208-</t>
+        </is>
+      </c>
+      <c r="T25" s="45" t="inlineStr">
+        <is>
+          <t>t2001958-</t>
+        </is>
+      </c>
+      <c r="U25" s="45" t="inlineStr">
+        <is>
+          <t>T2000236-</t>
+        </is>
+      </c>
+      <c r="V25" s="45" t="inlineStr">
+        <is>
+          <t>B2011305-</t>
+        </is>
+      </c>
+      <c r="W25" s="45" t="inlineStr">
+        <is>
+          <t>B2000144-</t>
+        </is>
+      </c>
+      <c r="X25" s="45" t="inlineStr">
+        <is>
+          <t>b2010452-</t>
+        </is>
+      </c>
+      <c r="Y25" s="45" t="inlineStr">
+        <is>
+          <t>p1225708-</t>
+        </is>
+      </c>
+      <c r="Z25" s="45" t="inlineStr">
+        <is>
+          <t>t2003030-</t>
+        </is>
+      </c>
+      <c r="AA25" s="45" t="inlineStr">
+        <is>
+          <t>B2000987-</t>
+        </is>
+      </c>
+      <c r="AB25" s="45" t="inlineStr">
+        <is>
+          <t>b1007722-</t>
+        </is>
+      </c>
+      <c r="AC25" s="45" t="inlineStr">
+        <is>
+          <t>B2011319-</t>
+        </is>
+      </c>
+      <c r="AD25" s="45" t="inlineStr">
+        <is>
+          <t>B2011306-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="1">
+      <c r="A26" s="51" t="n"/>
+      <c r="B26" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C26" s="43" t="inlineStr">
+        <is>
+          <t>01282C</t>
+        </is>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>01281C</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="inlineStr">
+        <is>
+          <t>01262C</t>
+        </is>
+      </c>
+      <c r="F26" s="43" t="inlineStr">
+        <is>
+          <t>01261C</t>
+        </is>
+      </c>
+      <c r="G26" s="43" t="inlineStr">
+        <is>
+          <t>01242C</t>
+        </is>
+      </c>
+      <c r="H26" s="43" t="inlineStr">
+        <is>
+          <t>01241C</t>
+        </is>
+      </c>
+      <c r="I26" s="43" t="inlineStr">
+        <is>
+          <t>01222C</t>
+        </is>
+      </c>
+      <c r="J26" s="43" t="inlineStr">
+        <is>
+          <t>01221C</t>
+        </is>
+      </c>
+      <c r="K26" s="43" t="inlineStr">
+        <is>
+          <t>01202C</t>
+        </is>
+      </c>
+      <c r="L26" s="43" t="inlineStr">
+        <is>
+          <t>01201C</t>
+        </is>
+      </c>
+      <c r="M26" s="43" t="inlineStr">
+        <is>
+          <t>01182C</t>
+        </is>
+      </c>
+      <c r="N26" s="43" t="inlineStr">
+        <is>
+          <t>01181C</t>
+        </is>
+      </c>
+      <c r="O26" s="43" t="inlineStr">
+        <is>
+          <t>01162C</t>
+        </is>
+      </c>
+      <c r="P26" s="43" t="inlineStr">
+        <is>
+          <t>01161C</t>
+        </is>
+      </c>
+      <c r="Q26" s="43" t="inlineStr">
+        <is>
+          <t>01142C</t>
+        </is>
+      </c>
+      <c r="R26" s="43" t="inlineStr">
+        <is>
+          <t>01141C</t>
+        </is>
+      </c>
+      <c r="S26" s="43" t="inlineStr">
+        <is>
+          <t>01122C</t>
+        </is>
+      </c>
+      <c r="T26" s="43" t="inlineStr">
+        <is>
+          <t>01121C</t>
+        </is>
+      </c>
+      <c r="U26" s="43" t="inlineStr">
+        <is>
+          <t>01102C</t>
+        </is>
+      </c>
+      <c r="V26" s="43" t="inlineStr">
+        <is>
+          <t>01101C</t>
+        </is>
+      </c>
+      <c r="W26" s="43" t="inlineStr">
+        <is>
+          <t>01082C</t>
+        </is>
+      </c>
+      <c r="X26" s="43" t="inlineStr">
+        <is>
+          <t>01081C</t>
+        </is>
+      </c>
+      <c r="Y26" s="43" t="inlineStr">
+        <is>
+          <t>01062C</t>
+        </is>
+      </c>
+      <c r="Z26" s="43" t="inlineStr">
+        <is>
+          <t>01061C</t>
+        </is>
+      </c>
+      <c r="AA26" s="43" t="inlineStr">
+        <is>
+          <t>01042C</t>
+        </is>
+      </c>
+      <c r="AB26" s="43" t="inlineStr">
+        <is>
+          <t>01041C</t>
+        </is>
+      </c>
+      <c r="AC26" s="43" t="inlineStr">
+        <is>
+          <t>01022C</t>
+        </is>
+      </c>
+      <c r="AD26" s="43" t="inlineStr">
+        <is>
+          <t>01021C</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="35" customHeight="1">
+      <c r="A27" s="51" t="n"/>
+      <c r="B27" s="45" t="n"/>
+      <c r="C27" s="45" t="inlineStr">
+        <is>
+          <t>T1000424-</t>
+        </is>
+      </c>
+      <c r="D27" s="45" t="inlineStr">
+        <is>
+          <t>B2012223-</t>
+        </is>
+      </c>
+      <c r="E27" s="45" t="inlineStr">
+        <is>
+          <t>T2000278-</t>
+        </is>
+      </c>
+      <c r="F27" s="45" t="inlineStr">
+        <is>
+          <t>B1004352-</t>
+        </is>
+      </c>
+      <c r="G27" s="45" t="inlineStr">
+        <is>
+          <t>T2003282-</t>
+        </is>
+      </c>
+      <c r="H27" s="45" t="inlineStr">
+        <is>
+          <t>B2010471-</t>
+        </is>
+      </c>
+      <c r="I27" s="45" t="inlineStr">
+        <is>
+          <t>B1005655-</t>
+        </is>
+      </c>
+      <c r="J27" s="45" t="inlineStr">
+        <is>
+          <t>B2000670-</t>
+        </is>
+      </c>
+      <c r="K27" s="45" t="inlineStr">
+        <is>
+          <t>b2012266-</t>
+        </is>
+      </c>
+      <c r="L27" s="45" t="n"/>
+      <c r="M27" s="45" t="inlineStr">
+        <is>
+          <t>b2010467-</t>
+        </is>
+      </c>
+      <c r="N27" s="45" t="n"/>
+      <c r="O27" s="45" t="n"/>
+      <c r="P27" s="45" t="n"/>
+      <c r="Q27" s="45" t="inlineStr">
+        <is>
+          <t>B1004679-</t>
+        </is>
+      </c>
+      <c r="R27" s="45" t="inlineStr">
+        <is>
+          <t>B2000385-</t>
+        </is>
+      </c>
+      <c r="S27" s="45" t="inlineStr">
+        <is>
+          <t>B1008466-</t>
+        </is>
+      </c>
+      <c r="T27" s="45" t="inlineStr">
+        <is>
+          <t>B2011497-</t>
+        </is>
+      </c>
+      <c r="U27" s="45" t="n"/>
+      <c r="V27" s="45" t="inlineStr">
+        <is>
+          <t>B2000108-</t>
+        </is>
+      </c>
+      <c r="W27" s="45" t="inlineStr">
+        <is>
+          <t>T2001399-</t>
+        </is>
+      </c>
+      <c r="X27" s="45" t="inlineStr">
+        <is>
+          <t>U1000142-</t>
+        </is>
+      </c>
+      <c r="Y27" s="45" t="inlineStr">
+        <is>
+          <t>B2012335-</t>
+        </is>
+      </c>
+      <c r="Z27" s="45" t="inlineStr">
+        <is>
+          <t>b2010469-</t>
+        </is>
+      </c>
+      <c r="AA27" s="45" t="inlineStr">
+        <is>
+          <t>B1008343-</t>
+        </is>
+      </c>
+      <c r="AB27" s="45" t="inlineStr">
+        <is>
+          <t>T1000662-</t>
+        </is>
+      </c>
+      <c r="AC27" s="45" t="inlineStr">
+        <is>
+          <t>B2000449-</t>
+        </is>
+      </c>
+      <c r="AD27" s="45" t="inlineStr">
+        <is>
+          <t>X1000262-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="1">
+      <c r="A28" s="51" t="n"/>
+      <c r="B28" s="43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C28" s="43" t="inlineStr">
+        <is>
+          <t>01282B</t>
+        </is>
+      </c>
+      <c r="D28" s="43" t="inlineStr">
+        <is>
+          <t>01281B</t>
+        </is>
+      </c>
+      <c r="E28" s="43" t="inlineStr">
+        <is>
+          <t>01262B</t>
+        </is>
+      </c>
+      <c r="F28" s="43" t="inlineStr">
+        <is>
+          <t>01261B</t>
+        </is>
+      </c>
+      <c r="G28" s="43" t="inlineStr">
+        <is>
+          <t>01242B</t>
+        </is>
+      </c>
+      <c r="H28" s="43" t="inlineStr">
+        <is>
+          <t>01241B</t>
+        </is>
+      </c>
+      <c r="I28" s="43" t="inlineStr">
+        <is>
+          <t>01222B</t>
+        </is>
+      </c>
+      <c r="J28" s="43" t="inlineStr">
+        <is>
+          <t>01221B</t>
+        </is>
+      </c>
+      <c r="K28" s="43" t="inlineStr">
+        <is>
+          <t>01202B</t>
+        </is>
+      </c>
+      <c r="L28" s="43" t="inlineStr">
+        <is>
+          <t>01201B</t>
+        </is>
+      </c>
+      <c r="M28" s="43" t="inlineStr">
+        <is>
+          <t>01182B</t>
+        </is>
+      </c>
+      <c r="N28" s="43" t="inlineStr">
+        <is>
+          <t>01181B</t>
+        </is>
+      </c>
+      <c r="O28" s="43" t="inlineStr">
+        <is>
+          <t>01162B</t>
+        </is>
+      </c>
+      <c r="P28" s="43" t="inlineStr">
+        <is>
+          <t>01161B</t>
+        </is>
+      </c>
+      <c r="Q28" s="43" t="inlineStr">
+        <is>
+          <t>01142B</t>
+        </is>
+      </c>
+      <c r="R28" s="43" t="inlineStr">
+        <is>
+          <t>01141B</t>
+        </is>
+      </c>
+      <c r="S28" s="43" t="inlineStr">
+        <is>
+          <t>01122B</t>
+        </is>
+      </c>
+      <c r="T28" s="43" t="inlineStr">
+        <is>
+          <t>01121B</t>
+        </is>
+      </c>
+      <c r="U28" s="43" t="inlineStr">
+        <is>
+          <t>01102B</t>
+        </is>
+      </c>
+      <c r="V28" s="43" t="inlineStr">
+        <is>
+          <t>01101B</t>
+        </is>
+      </c>
+      <c r="W28" s="43" t="inlineStr">
+        <is>
+          <t>01082B</t>
+        </is>
+      </c>
+      <c r="X28" s="43" t="inlineStr">
+        <is>
+          <t>01081B</t>
+        </is>
+      </c>
+      <c r="Y28" s="43" t="inlineStr">
+        <is>
+          <t>01062B</t>
+        </is>
+      </c>
+      <c r="Z28" s="43" t="inlineStr">
+        <is>
+          <t>01061B</t>
+        </is>
+      </c>
+      <c r="AA28" s="43" t="inlineStr">
+        <is>
+          <t>01042B</t>
+        </is>
+      </c>
+      <c r="AB28" s="43" t="inlineStr">
+        <is>
+          <t>01041B</t>
+        </is>
+      </c>
+      <c r="AC28" s="43" t="inlineStr">
+        <is>
+          <t>01022B</t>
+        </is>
+      </c>
+      <c r="AD28" s="43" t="inlineStr">
+        <is>
+          <t>01021B</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="35" customHeight="1">
+      <c r="A29" s="51" t="n"/>
+      <c r="B29" s="45" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>M1015708-</t>
+        </is>
+      </c>
+      <c r="D29" s="45" t="inlineStr">
+        <is>
+          <t>P1222156-</t>
+        </is>
+      </c>
+      <c r="E29" s="45" t="inlineStr">
+        <is>
+          <t>B2012207-</t>
+        </is>
+      </c>
+      <c r="F29" s="45" t="inlineStr">
+        <is>
+          <t>B2010470-</t>
+        </is>
+      </c>
+      <c r="G29" s="45" t="inlineStr">
+        <is>
+          <t>B1007305-</t>
+        </is>
+      </c>
+      <c r="H29" s="45" t="inlineStr">
+        <is>
+          <t>M1012525-</t>
+        </is>
+      </c>
+      <c r="I29" s="45" t="inlineStr">
+        <is>
+          <t>P1208170-</t>
+        </is>
+      </c>
+      <c r="J29" s="45" t="inlineStr">
+        <is>
+          <t>T2003346-</t>
+        </is>
+      </c>
+      <c r="K29" s="45" t="inlineStr">
+        <is>
+          <t>M1016609-</t>
+        </is>
+      </c>
+      <c r="L29" s="45" t="inlineStr">
+        <is>
+          <t>B2011444-</t>
+        </is>
+      </c>
+      <c r="M29" s="45" t="inlineStr">
+        <is>
+          <t>m1009084-</t>
+        </is>
+      </c>
+      <c r="N29" s="45" t="inlineStr">
+        <is>
+          <t>B1008752-</t>
+        </is>
+      </c>
+      <c r="O29" s="45" t="inlineStr">
+        <is>
+          <t>B1005663-</t>
+        </is>
+      </c>
+      <c r="P29" s="45" t="n"/>
+      <c r="Q29" s="45" t="inlineStr">
+        <is>
+          <t>B1004853-</t>
+        </is>
+      </c>
+      <c r="R29" s="45" t="inlineStr">
+        <is>
+          <t>B1006945-</t>
+        </is>
+      </c>
+      <c r="S29" s="45" t="inlineStr">
+        <is>
+          <t>B2010623-</t>
+        </is>
+      </c>
+      <c r="T29" s="45" t="inlineStr">
+        <is>
+          <t>B1004824-</t>
+        </is>
+      </c>
+      <c r="U29" s="45" t="inlineStr">
         <is>
           <t>T2001332-</t>
         </is>
       </c>
-      <c r="T25" s="39" t="n"/>
-      <c r="U25" s="39" t="n"/>
-      <c r="V25" s="39" t="inlineStr">
-        <is>
-          <t>B2011305-</t>
-        </is>
-      </c>
-      <c r="W25" s="39" t="inlineStr">
-        <is>
-          <t>B2000144-</t>
-        </is>
-      </c>
-      <c r="X25" s="39" t="inlineStr">
-        <is>
-          <t>b2010452-</t>
-        </is>
-      </c>
-      <c r="Y25" s="39" t="inlineStr">
-        <is>
-          <t>p1225708-</t>
-        </is>
-      </c>
-      <c r="Z25" s="39" t="n"/>
-      <c r="AA25" s="39" t="inlineStr">
-        <is>
-          <t>B2010336-</t>
-        </is>
-      </c>
-      <c r="AB25" s="39" t="inlineStr">
-        <is>
-          <t>P1204055-</t>
-        </is>
-      </c>
-      <c r="AC25" s="39" t="inlineStr">
-        <is>
-          <t>B2011319-</t>
-        </is>
-      </c>
-      <c r="AD25" s="39" t="inlineStr">
-        <is>
-          <t>B2011306-</t>
+      <c r="V29" s="45" t="inlineStr">
+        <is>
+          <t>B2012330-</t>
+        </is>
+      </c>
+      <c r="W29" s="45" t="inlineStr">
+        <is>
+          <t>b2010462-</t>
+        </is>
+      </c>
+      <c r="X29" s="45" t="inlineStr">
+        <is>
+          <t>B1008429-</t>
+        </is>
+      </c>
+      <c r="Y29" s="45" t="inlineStr">
+        <is>
+          <t>P1208896-</t>
+        </is>
+      </c>
+      <c r="Z29" s="45" t="inlineStr">
+        <is>
+          <t>b1006162-</t>
+        </is>
+      </c>
+      <c r="AA29" s="45" t="inlineStr">
+        <is>
+          <t>B1005051-</t>
+        </is>
+      </c>
+      <c r="AB29" s="45" t="inlineStr">
+        <is>
+          <t>B2010145-</t>
+        </is>
+      </c>
+      <c r="AC29" s="45" t="inlineStr">
+        <is>
+          <t>B2000049-</t>
+        </is>
+      </c>
+      <c r="AD29" s="48" t="inlineStr">
+        <is>
+          <t>P1234133-
+T2002453-</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="11" customHeight="1" s="19">
-      <c r="A26" s="45" t="n"/>
-      <c r="B26" s="37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C26" s="37" t="inlineStr">
-        <is>
-          <t>01282C</t>
-        </is>
-      </c>
-      <c r="D26" s="37" t="inlineStr">
-        <is>
-          <t>01281C</t>
-        </is>
-      </c>
-      <c r="E26" s="37" t="inlineStr">
-        <is>
-          <t>01262C</t>
-        </is>
-      </c>
-      <c r="F26" s="37" t="inlineStr">
-        <is>
-          <t>01261C</t>
-        </is>
-      </c>
-      <c r="G26" s="37" t="inlineStr">
-        <is>
-          <t>01242C</t>
-        </is>
-      </c>
-      <c r="H26" s="37" t="inlineStr">
-        <is>
-          <t>01241C</t>
-        </is>
-      </c>
-      <c r="I26" s="37" t="inlineStr">
-        <is>
-          <t>01222C</t>
-        </is>
-      </c>
-      <c r="J26" s="37" t="inlineStr">
-        <is>
-          <t>01221C</t>
-        </is>
-      </c>
-      <c r="K26" s="37" t="inlineStr">
-        <is>
-          <t>01202C</t>
-        </is>
-      </c>
-      <c r="L26" s="37" t="inlineStr">
-        <is>
-          <t>01201C</t>
-        </is>
-      </c>
-      <c r="M26" s="37" t="inlineStr">
-        <is>
-          <t>01182C</t>
-        </is>
-      </c>
-      <c r="N26" s="37" t="inlineStr">
-        <is>
-          <t>01181C</t>
-        </is>
-      </c>
-      <c r="O26" s="37" t="inlineStr">
-        <is>
-          <t>01162C</t>
-        </is>
-      </c>
-      <c r="P26" s="37" t="inlineStr">
-        <is>
-          <t>01161C</t>
-        </is>
-      </c>
-      <c r="Q26" s="37" t="inlineStr">
-        <is>
-          <t>01142C</t>
-        </is>
-      </c>
-      <c r="R26" s="37" t="inlineStr">
-        <is>
-          <t>01141C</t>
-        </is>
-      </c>
-      <c r="S26" s="37" t="inlineStr">
-        <is>
-          <t>01122C</t>
-        </is>
-      </c>
-      <c r="T26" s="37" t="inlineStr">
-        <is>
-          <t>01121C</t>
-        </is>
-      </c>
-      <c r="U26" s="37" t="inlineStr">
-        <is>
-          <t>01102C</t>
-        </is>
-      </c>
-      <c r="V26" s="37" t="inlineStr">
-        <is>
-          <t>01101C</t>
-        </is>
-      </c>
-      <c r="W26" s="37" t="inlineStr">
-        <is>
-          <t>01082C</t>
-        </is>
-      </c>
-      <c r="X26" s="37" t="inlineStr">
-        <is>
-          <t>01081C</t>
-        </is>
-      </c>
-      <c r="Y26" s="37" t="inlineStr">
-        <is>
-          <t>01062C</t>
-        </is>
-      </c>
-      <c r="Z26" s="37" t="inlineStr">
-        <is>
-          <t>01061C</t>
-        </is>
-      </c>
-      <c r="AA26" s="37" t="inlineStr">
-        <is>
-          <t>01042C</t>
-        </is>
-      </c>
-      <c r="AB26" s="37" t="inlineStr">
-        <is>
-          <t>01041C</t>
-        </is>
-      </c>
-      <c r="AC26" s="37" t="inlineStr">
-        <is>
-          <t>01022C</t>
-        </is>
-      </c>
-      <c r="AD26" s="37" t="inlineStr">
-        <is>
-          <t>01021C</t>
+    <row r="30" ht="11" customHeight="1">
+      <c r="A30" s="51" t="n"/>
+      <c r="B30" s="43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C30" s="43" t="inlineStr">
+        <is>
+          <t>01282A</t>
+        </is>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>01281A</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="inlineStr">
+        <is>
+          <t>01262A</t>
+        </is>
+      </c>
+      <c r="F30" s="43" t="inlineStr">
+        <is>
+          <t>01261A</t>
+        </is>
+      </c>
+      <c r="G30" s="43" t="inlineStr">
+        <is>
+          <t>01242A</t>
+        </is>
+      </c>
+      <c r="H30" s="43" t="inlineStr">
+        <is>
+          <t>01241A</t>
+        </is>
+      </c>
+      <c r="I30" s="43" t="inlineStr">
+        <is>
+          <t>01222A</t>
+        </is>
+      </c>
+      <c r="J30" s="43" t="inlineStr">
+        <is>
+          <t>01221A</t>
+        </is>
+      </c>
+      <c r="K30" s="43" t="inlineStr">
+        <is>
+          <t>01202A</t>
+        </is>
+      </c>
+      <c r="L30" s="43" t="inlineStr">
+        <is>
+          <t>01201A</t>
+        </is>
+      </c>
+      <c r="M30" s="43" t="inlineStr">
+        <is>
+          <t>01182A</t>
+        </is>
+      </c>
+      <c r="N30" s="43" t="inlineStr">
+        <is>
+          <t>01181A</t>
+        </is>
+      </c>
+      <c r="O30" s="43" t="inlineStr">
+        <is>
+          <t>01162A</t>
+        </is>
+      </c>
+      <c r="P30" s="43" t="inlineStr">
+        <is>
+          <t>01161A</t>
+        </is>
+      </c>
+      <c r="Q30" s="43" t="inlineStr">
+        <is>
+          <t>01142A</t>
+        </is>
+      </c>
+      <c r="R30" s="43" t="inlineStr">
+        <is>
+          <t>01141A</t>
+        </is>
+      </c>
+      <c r="S30" s="43" t="inlineStr">
+        <is>
+          <t>01122A</t>
+        </is>
+      </c>
+      <c r="T30" s="43" t="inlineStr">
+        <is>
+          <t>01121A</t>
+        </is>
+      </c>
+      <c r="U30" s="43" t="inlineStr">
+        <is>
+          <t>01102A</t>
+        </is>
+      </c>
+      <c r="V30" s="43" t="inlineStr">
+        <is>
+          <t>01101A</t>
+        </is>
+      </c>
+      <c r="W30" s="43" t="inlineStr">
+        <is>
+          <t>01082A</t>
+        </is>
+      </c>
+      <c r="X30" s="43" t="inlineStr">
+        <is>
+          <t>01081A</t>
+        </is>
+      </c>
+      <c r="Y30" s="43" t="inlineStr">
+        <is>
+          <t>01062A</t>
+        </is>
+      </c>
+      <c r="Z30" s="43" t="inlineStr">
+        <is>
+          <t>01061A</t>
+        </is>
+      </c>
+      <c r="AA30" s="43" t="inlineStr">
+        <is>
+          <t>01042A</t>
+        </is>
+      </c>
+      <c r="AB30" s="43" t="inlineStr">
+        <is>
+          <t>01041A</t>
+        </is>
+      </c>
+      <c r="AC30" s="43" t="inlineStr">
+        <is>
+          <t>01022A</t>
+        </is>
+      </c>
+      <c r="AD30" s="43" t="inlineStr">
+        <is>
+          <t>01021A</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="35" customHeight="1" s="19">
-      <c r="A27" s="45" t="n"/>
-      <c r="B27" s="39" t="n"/>
-      <c r="C27" s="39" t="n"/>
-      <c r="D27" s="39" t="inlineStr">
-        <is>
-          <t>B1006750-</t>
-        </is>
-      </c>
-      <c r="E27" s="39" t="inlineStr">
-        <is>
-          <t>T2000278-</t>
-        </is>
-      </c>
-      <c r="F27" s="39" t="inlineStr">
-        <is>
-          <t>B1004816-</t>
-        </is>
-      </c>
-      <c r="G27" s="39" t="inlineStr">
-        <is>
-          <t>t2001235-</t>
-        </is>
-      </c>
-      <c r="H27" s="39" t="inlineStr">
-        <is>
-          <t>B2010471-</t>
-        </is>
-      </c>
-      <c r="I27" s="39" t="inlineStr">
-        <is>
-          <t>b2010464-</t>
-        </is>
-      </c>
-      <c r="J27" s="39" t="inlineStr">
-        <is>
-          <t>B1008099-</t>
-        </is>
-      </c>
-      <c r="K27" s="39" t="inlineStr">
-        <is>
-          <t>t2001256-</t>
-        </is>
-      </c>
-      <c r="L27" s="39" t="n"/>
-      <c r="M27" s="39" t="inlineStr">
-        <is>
-          <t>b2010467-</t>
-        </is>
-      </c>
-      <c r="N27" s="39" t="n"/>
-      <c r="O27" s="39" t="n"/>
-      <c r="P27" s="39" t="n"/>
-      <c r="Q27" s="39" t="n"/>
-      <c r="R27" s="39" t="n"/>
-      <c r="S27" s="39" t="inlineStr">
-        <is>
-          <t>B1008466-</t>
-        </is>
-      </c>
-      <c r="T27" s="39" t="inlineStr">
-        <is>
-          <t>B1006730-</t>
-        </is>
-      </c>
-      <c r="U27" s="39" t="inlineStr">
-        <is>
-          <t>B1000287-</t>
-        </is>
-      </c>
-      <c r="V27" s="39" t="inlineStr">
-        <is>
-          <t>T2001716-</t>
-        </is>
-      </c>
-      <c r="W27" s="39" t="inlineStr">
-        <is>
-          <t>M1015375-</t>
-        </is>
-      </c>
-      <c r="X27" s="39" t="inlineStr">
-        <is>
-          <t>U1000142-</t>
-        </is>
-      </c>
-      <c r="Y27" s="39" t="inlineStr">
-        <is>
-          <t>b1007311-</t>
-        </is>
-      </c>
-      <c r="Z27" s="39" t="inlineStr">
-        <is>
-          <t>b2010469-</t>
-        </is>
-      </c>
-      <c r="AA27" s="39" t="inlineStr">
-        <is>
-          <t>B1008292-</t>
-        </is>
-      </c>
-      <c r="AB27" s="39" t="n"/>
-      <c r="AC27" s="39" t="inlineStr">
-        <is>
-          <t>B2000449-</t>
-        </is>
-      </c>
-      <c r="AD27" s="39" t="inlineStr">
-        <is>
-          <t>b2000660-</t>
+    <row r="31" ht="35" customHeight="1">
+      <c r="A31" s="52" t="n"/>
+      <c r="B31" s="45" t="n"/>
+      <c r="C31" s="45" t="inlineStr">
+        <is>
+          <t>B1004715-</t>
+        </is>
+      </c>
+      <c r="D31" s="45" t="n"/>
+      <c r="E31" s="45" t="n"/>
+      <c r="F31" s="45" t="n"/>
+      <c r="G31" s="45" t="inlineStr">
+        <is>
+          <t>RW200479-</t>
+        </is>
+      </c>
+      <c r="H31" s="45" t="n"/>
+      <c r="I31" s="45" t="inlineStr">
+        <is>
+          <t>B1004348-</t>
+        </is>
+      </c>
+      <c r="J31" s="45" t="inlineStr">
+        <is>
+          <t>B1004350-</t>
+        </is>
+      </c>
+      <c r="K31" s="45" t="n"/>
+      <c r="L31" s="45" t="n"/>
+      <c r="M31" s="45" t="n"/>
+      <c r="N31" s="45" t="n"/>
+      <c r="O31" s="45" t="n"/>
+      <c r="P31" s="45" t="n"/>
+      <c r="Q31" s="45" t="n"/>
+      <c r="R31" s="45" t="n"/>
+      <c r="S31" s="45" t="n"/>
+      <c r="T31" s="45" t="n"/>
+      <c r="U31" s="45" t="inlineStr">
+        <is>
+          <t>B1005658-</t>
+        </is>
+      </c>
+      <c r="V31" s="45" t="n"/>
+      <c r="W31" s="45" t="inlineStr">
+        <is>
+          <t>B2012221-</t>
+        </is>
+      </c>
+      <c r="X31" s="45" t="inlineStr">
+        <is>
+          <t>B2012227-</t>
+        </is>
+      </c>
+      <c r="Y31" s="48" t="inlineStr">
+        <is>
+          <t>B1008813-
+X1000222-</t>
+        </is>
+      </c>
+      <c r="Z31" s="45" t="inlineStr">
+        <is>
+          <t>B1004428-</t>
+        </is>
+      </c>
+      <c r="AA31" s="45" t="inlineStr">
+        <is>
+          <t>b2012284-</t>
+        </is>
+      </c>
+      <c r="AB31" s="45" t="n"/>
+      <c r="AC31" s="45" t="inlineStr">
+        <is>
+          <t>P1229817-</t>
+        </is>
+      </c>
+      <c r="AD31" s="45" t="inlineStr">
+        <is>
+          <t>B1004440-</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="11" customHeight="1" s="19">
-      <c r="A28" s="45" t="n"/>
-      <c r="B28" s="37" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C28" s="37" t="inlineStr">
-        <is>
-          <t>01282B</t>
-        </is>
-      </c>
-      <c r="D28" s="37" t="inlineStr">
-        <is>
-          <t>01281B</t>
-        </is>
-      </c>
-      <c r="E28" s="37" t="inlineStr">
-        <is>
-          <t>01262B</t>
-        </is>
-      </c>
-      <c r="F28" s="37" t="inlineStr">
-        <is>
-          <t>01261B</t>
-        </is>
-      </c>
-      <c r="G28" s="37" t="inlineStr">
-        <is>
-          <t>01242B</t>
-        </is>
-      </c>
-      <c r="H28" s="37" t="inlineStr">
-        <is>
-          <t>01241B</t>
-        </is>
-      </c>
-      <c r="I28" s="37" t="inlineStr">
-        <is>
-          <t>01222B</t>
-        </is>
-      </c>
-      <c r="J28" s="37" t="inlineStr">
-        <is>
-          <t>01221B</t>
-        </is>
-      </c>
-      <c r="K28" s="37" t="inlineStr">
-        <is>
-          <t>01202B</t>
-        </is>
-      </c>
-      <c r="L28" s="37" t="inlineStr">
-        <is>
-          <t>01201B</t>
-        </is>
-      </c>
-      <c r="M28" s="37" t="inlineStr">
-        <is>
-          <t>01182B</t>
-        </is>
-      </c>
-      <c r="N28" s="37" t="inlineStr">
-        <is>
-          <t>01181B</t>
-        </is>
-      </c>
-      <c r="O28" s="37" t="inlineStr">
-        <is>
-          <t>01162B</t>
-        </is>
-      </c>
-      <c r="P28" s="37" t="inlineStr">
-        <is>
-          <t>01161B</t>
-        </is>
-      </c>
-      <c r="Q28" s="37" t="inlineStr">
-        <is>
-          <t>01142B</t>
-        </is>
-      </c>
-      <c r="R28" s="37" t="inlineStr">
-        <is>
-          <t>01141B</t>
-        </is>
-      </c>
-      <c r="S28" s="37" t="inlineStr">
-        <is>
-          <t>01122B</t>
-        </is>
-      </c>
-      <c r="T28" s="37" t="inlineStr">
-        <is>
-          <t>01121B</t>
-        </is>
-      </c>
-      <c r="U28" s="37" t="inlineStr">
-        <is>
-          <t>01102B</t>
-        </is>
-      </c>
-      <c r="V28" s="37" t="inlineStr">
-        <is>
-          <t>01101B</t>
-        </is>
-      </c>
-      <c r="W28" s="37" t="inlineStr">
-        <is>
-          <t>01082B</t>
-        </is>
-      </c>
-      <c r="X28" s="37" t="inlineStr">
-        <is>
-          <t>01081B</t>
-        </is>
-      </c>
-      <c r="Y28" s="37" t="inlineStr">
-        <is>
-          <t>01062B</t>
-        </is>
-      </c>
-      <c r="Z28" s="37" t="inlineStr">
-        <is>
-          <t>01061B</t>
-        </is>
-      </c>
-      <c r="AA28" s="37" t="inlineStr">
-        <is>
-          <t>01042B</t>
-        </is>
-      </c>
-      <c r="AB28" s="37" t="inlineStr">
-        <is>
-          <t>01041B</t>
-        </is>
-      </c>
-      <c r="AC28" s="37" t="inlineStr">
-        <is>
-          <t>01022B</t>
-        </is>
-      </c>
-      <c r="AD28" s="37" t="inlineStr">
-        <is>
-          <t>01021B</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="35" customHeight="1" s="19">
-      <c r="A29" s="45" t="n"/>
-      <c r="B29" s="39" t="n"/>
-      <c r="C29" s="39" t="inlineStr">
-        <is>
-          <t>B2011339-</t>
-        </is>
-      </c>
-      <c r="D29" s="39" t="inlineStr">
-        <is>
-          <t>P1222156-</t>
-        </is>
-      </c>
-      <c r="E29" s="39" t="n"/>
-      <c r="F29" s="39" t="inlineStr">
-        <is>
-          <t>B2010470-</t>
-        </is>
-      </c>
-      <c r="G29" s="39" t="inlineStr">
-        <is>
-          <t>B1007305-</t>
-        </is>
-      </c>
-      <c r="H29" s="39" t="inlineStr">
-        <is>
-          <t>B2000436-</t>
-        </is>
-      </c>
-      <c r="I29" s="39" t="inlineStr">
-        <is>
-          <t>P1208170-</t>
-        </is>
-      </c>
-      <c r="J29" s="39" t="n"/>
-      <c r="K29" s="39" t="inlineStr">
-        <is>
-          <t>b1004254-</t>
-        </is>
-      </c>
-      <c r="L29" s="39" t="inlineStr">
-        <is>
-          <t>M1016856-</t>
-        </is>
-      </c>
-      <c r="M29" s="39" t="inlineStr">
-        <is>
-          <t>m1009084-</t>
-        </is>
-      </c>
-      <c r="N29" s="39" t="inlineStr">
-        <is>
-          <t>B1004553-</t>
-        </is>
-      </c>
-      <c r="O29" s="39" t="n"/>
-      <c r="P29" s="39" t="n"/>
-      <c r="Q29" s="39" t="n"/>
-      <c r="R29" s="39" t="n"/>
-      <c r="S29" s="39" t="inlineStr">
-        <is>
-          <t>B1005973-</t>
-        </is>
-      </c>
-      <c r="T29" s="39" t="inlineStr">
-        <is>
-          <t>B1004824-</t>
-        </is>
-      </c>
-      <c r="U29" s="39" t="inlineStr">
-        <is>
-          <t>B2010656-</t>
-        </is>
-      </c>
-      <c r="V29" s="39" t="inlineStr">
-        <is>
-          <t>B2011065-</t>
-        </is>
-      </c>
-      <c r="W29" s="39" t="inlineStr">
-        <is>
-          <t>b2010462-</t>
-        </is>
-      </c>
-      <c r="X29" s="39" t="inlineStr">
-        <is>
-          <t>B2010925-</t>
-        </is>
-      </c>
-      <c r="Y29" s="39" t="inlineStr">
-        <is>
-          <t>P1208896-</t>
-        </is>
-      </c>
-      <c r="Z29" s="39" t="n"/>
-      <c r="AA29" s="39" t="inlineStr">
-        <is>
-          <t>B1005051-</t>
-        </is>
-      </c>
-      <c r="AB29" s="39" t="inlineStr">
-        <is>
-          <t>b1008376-</t>
-        </is>
-      </c>
-      <c r="AC29" s="39" t="inlineStr">
-        <is>
-          <t>B2000049-</t>
-        </is>
-      </c>
-      <c r="AD29" s="39" t="n"/>
-    </row>
-    <row r="30" ht="11" customHeight="1" s="19">
-      <c r="A30" s="45" t="n"/>
-      <c r="B30" s="37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C30" s="37" t="inlineStr">
-        <is>
-          <t>01282A</t>
-        </is>
-      </c>
-      <c r="D30" s="37" t="inlineStr">
-        <is>
-          <t>01281A</t>
-        </is>
-      </c>
-      <c r="E30" s="37" t="inlineStr">
-        <is>
-          <t>01262A</t>
-        </is>
-      </c>
-      <c r="F30" s="37" t="inlineStr">
-        <is>
-          <t>01261A</t>
-        </is>
-      </c>
-      <c r="G30" s="37" t="inlineStr">
-        <is>
-          <t>01242A</t>
-        </is>
-      </c>
-      <c r="H30" s="37" t="inlineStr">
-        <is>
-          <t>01241A</t>
-        </is>
-      </c>
-      <c r="I30" s="37" t="inlineStr">
-        <is>
-          <t>01222A</t>
-        </is>
-      </c>
-      <c r="J30" s="37" t="inlineStr">
-        <is>
-          <t>01221A</t>
-        </is>
-      </c>
-      <c r="K30" s="37" t="inlineStr">
-        <is>
-          <t>01202A</t>
-        </is>
-      </c>
-      <c r="L30" s="37" t="inlineStr">
-        <is>
-          <t>01201A</t>
-        </is>
-      </c>
-      <c r="M30" s="37" t="inlineStr">
-        <is>
-          <t>01182A</t>
-        </is>
-      </c>
-      <c r="N30" s="37" t="inlineStr">
-        <is>
-          <t>01181A</t>
-        </is>
-      </c>
-      <c r="O30" s="37" t="inlineStr">
-        <is>
-          <t>01162A</t>
-        </is>
-      </c>
-      <c r="P30" s="37" t="inlineStr">
-        <is>
-          <t>01161A</t>
-        </is>
-      </c>
-      <c r="Q30" s="37" t="inlineStr">
-        <is>
-          <t>01142A</t>
-        </is>
-      </c>
-      <c r="R30" s="37" t="inlineStr">
-        <is>
-          <t>01141A</t>
-        </is>
-      </c>
-      <c r="S30" s="37" t="inlineStr">
-        <is>
-          <t>01122A</t>
-        </is>
-      </c>
-      <c r="T30" s="37" t="inlineStr">
-        <is>
-          <t>01121A</t>
-        </is>
-      </c>
-      <c r="U30" s="37" t="inlineStr">
-        <is>
-          <t>01102A</t>
-        </is>
-      </c>
-      <c r="V30" s="37" t="inlineStr">
-        <is>
-          <t>01101A</t>
-        </is>
-      </c>
-      <c r="W30" s="37" t="inlineStr">
-        <is>
-          <t>01082A</t>
-        </is>
-      </c>
-      <c r="X30" s="37" t="inlineStr">
-        <is>
-          <t>01081A</t>
-        </is>
-      </c>
-      <c r="Y30" s="37" t="inlineStr">
-        <is>
-          <t>01062A</t>
-        </is>
-      </c>
-      <c r="Z30" s="37" t="inlineStr">
-        <is>
-          <t>01061A</t>
-        </is>
-      </c>
-      <c r="AA30" s="37" t="inlineStr">
-        <is>
-          <t>01042A</t>
-        </is>
-      </c>
-      <c r="AB30" s="37" t="inlineStr">
-        <is>
-          <t>01041A</t>
-        </is>
-      </c>
-      <c r="AC30" s="37" t="inlineStr">
-        <is>
-          <t>01022A</t>
-        </is>
-      </c>
-      <c r="AD30" s="37" t="inlineStr">
-        <is>
-          <t>01021A</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="35" customHeight="1" s="19">
-      <c r="A31" s="46" t="n"/>
-      <c r="B31" s="39" t="n"/>
-      <c r="C31" s="39" t="inlineStr">
-        <is>
-          <t>b1006821-</t>
-        </is>
-      </c>
-      <c r="D31" s="39" t="n"/>
-      <c r="E31" s="39" t="n"/>
-      <c r="F31" s="39" t="n"/>
-      <c r="G31" s="39" t="n"/>
-      <c r="H31" s="39" t="n"/>
-      <c r="I31" s="39" t="n"/>
-      <c r="J31" s="39" t="n"/>
-      <c r="K31" s="39" t="n"/>
-      <c r="L31" s="39" t="n"/>
-      <c r="M31" s="39" t="n"/>
-      <c r="N31" s="39" t="n"/>
-      <c r="O31" s="39" t="n"/>
-      <c r="P31" s="39" t="n"/>
-      <c r="Q31" s="39" t="n"/>
-      <c r="R31" s="39" t="n"/>
-      <c r="S31" s="39" t="n"/>
-      <c r="T31" s="39" t="n"/>
-      <c r="U31" s="39" t="n"/>
-      <c r="V31" s="39" t="n"/>
-      <c r="W31" s="39" t="inlineStr">
-        <is>
-          <t>B1007269-</t>
-        </is>
-      </c>
-      <c r="X31" s="39" t="inlineStr">
-        <is>
-          <t>B1007271-</t>
-        </is>
-      </c>
-      <c r="Y31" s="39" t="inlineStr">
-        <is>
-          <t>b2010511-</t>
-        </is>
-      </c>
-      <c r="Z31" s="39" t="inlineStr">
-        <is>
-          <t>b1006162-</t>
-        </is>
-      </c>
-      <c r="AA31" s="39" t="inlineStr">
-        <is>
-          <t>B2010660-</t>
-        </is>
-      </c>
-      <c r="AB31" s="39" t="inlineStr">
-        <is>
-          <t>B2010465-</t>
-        </is>
-      </c>
-      <c r="AC31" s="39" t="inlineStr">
-        <is>
-          <t>P1201125-</t>
-        </is>
-      </c>
-      <c r="AD31" s="39" t="inlineStr">
-        <is>
-          <t>P1207123-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="21" customHeight="1" s="19">
-      <c r="A32" s="36" t="n"/>
-      <c r="B32" s="36" t="n"/>
-      <c r="C32" s="43" t="n"/>
-      <c r="D32" s="43" t="n"/>
-      <c r="E32" s="43" t="n"/>
-      <c r="F32" s="43" t="n"/>
-      <c r="G32" s="43" t="n"/>
-      <c r="H32" s="43" t="n"/>
-      <c r="I32" s="43" t="n"/>
-      <c r="J32" s="43" t="n"/>
-      <c r="K32" s="44" t="n"/>
-      <c r="L32" s="44" t="n"/>
-      <c r="M32" s="44" t="n"/>
-      <c r="N32" s="44" t="n"/>
-      <c r="O32" s="44" t="n"/>
-      <c r="P32" s="44" t="n"/>
-      <c r="Q32" s="44" t="n"/>
-      <c r="R32" s="44" t="n"/>
-      <c r="S32" s="44" t="n"/>
-      <c r="T32" s="44" t="n"/>
-      <c r="U32" s="44" t="n"/>
-      <c r="V32" s="44" t="n"/>
-      <c r="W32" s="44" t="n"/>
-      <c r="X32" s="44" t="n"/>
-      <c r="Y32" s="44" t="n"/>
-      <c r="Z32" s="44" t="n"/>
-      <c r="AA32" s="44" t="n"/>
-      <c r="AB32" s="44" t="n"/>
-      <c r="AC32" s="44" t="n"/>
-      <c r="AD32" s="44" t="n"/>
+    <row r="32" ht="21" customHeight="1">
+      <c r="A32" s="42" t="n"/>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="49" t="n"/>
+      <c r="D32" s="49" t="n"/>
+      <c r="E32" s="49" t="n"/>
+      <c r="F32" s="49" t="n"/>
+      <c r="G32" s="49" t="n"/>
+      <c r="H32" s="49" t="n"/>
+      <c r="I32" s="49" t="n"/>
+      <c r="J32" s="49" t="n"/>
+      <c r="K32" s="50" t="n"/>
+      <c r="L32" s="50" t="n"/>
+      <c r="M32" s="50" t="n"/>
+      <c r="N32" s="50" t="n"/>
+      <c r="O32" s="50" t="n"/>
+      <c r="P32" s="50" t="n"/>
+      <c r="Q32" s="50" t="n"/>
+      <c r="R32" s="50" t="n"/>
+      <c r="S32" s="50" t="n"/>
+      <c r="T32" s="50" t="n"/>
+      <c r="U32" s="50" t="n"/>
+      <c r="V32" s="50" t="n"/>
+      <c r="W32" s="50" t="n"/>
+      <c r="X32" s="50" t="n"/>
+      <c r="Y32" s="50" t="n"/>
+      <c r="Z32" s="50" t="n"/>
+      <c r="AA32" s="50" t="n"/>
+      <c r="AB32" s="50" t="n"/>
+      <c r="AC32" s="50" t="n"/>
+      <c r="AD32" s="50" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A2:A15"/>
     <mergeCell ref="A18:A31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.3937" bottom="0.3937" header="0.3" footer="0.3"/>
